--- a/data/erp_P100_All.xlsx
+++ b/data/erp_P100_All.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="320">
   <si>
     <t>subName</t>
   </si>
@@ -354,6 +354,9 @@
     <t>n_weak</t>
   </si>
   <si>
+    <t>s_weak</t>
+  </si>
+  <si>
     <t>weak</t>
   </si>
   <si>
@@ -369,721 +372,124 @@
     <t>neutral</t>
   </si>
   <si>
-    <t>subName</t>
-  </si>
-  <si>
-    <t>sub-004</t>
-  </si>
-  <si>
-    <t>sub-006</t>
-  </si>
-  <si>
-    <t>sub-007</t>
-  </si>
-  <si>
-    <t>sub-008</t>
-  </si>
-  <si>
-    <t>sub-009</t>
-  </si>
-  <si>
-    <t>sub-010</t>
-  </si>
-  <si>
-    <t>sub-011</t>
-  </si>
-  <si>
-    <t>sub-012</t>
-  </si>
-  <si>
-    <t>sub-014</t>
-  </si>
-  <si>
-    <t>sub-015</t>
-  </si>
-  <si>
-    <t>sub-017</t>
-  </si>
-  <si>
-    <t>sub-018</t>
-  </si>
-  <si>
-    <t>sub-019</t>
-  </si>
-  <si>
-    <t>sub-020</t>
-  </si>
-  <si>
-    <t>sub-021</t>
-  </si>
-  <si>
-    <t>sub-022</t>
-  </si>
-  <si>
-    <t>sub-024</t>
-  </si>
-  <si>
-    <t>sub-025</t>
-  </si>
-  <si>
-    <t>sub-026</t>
-  </si>
-  <si>
-    <t>sub-027</t>
-  </si>
-  <si>
-    <t>sub-031</t>
-  </si>
-  <si>
-    <t>sub-032</t>
-  </si>
-  <si>
-    <t>sub-033</t>
-  </si>
-  <si>
-    <t>sub-034</t>
-  </si>
-  <si>
-    <t>sub-035</t>
-  </si>
-  <si>
-    <t>sub-036</t>
-  </si>
-  <si>
-    <t>sub-037</t>
-  </si>
-  <si>
-    <t>sub-038</t>
-  </si>
-  <si>
-    <t>sub-039</t>
-  </si>
-  <si>
-    <t>sub-040</t>
-  </si>
-  <si>
-    <t>sub-041</t>
-  </si>
-  <si>
-    <t>sub-042</t>
-  </si>
-  <si>
-    <t>sub-043</t>
-  </si>
-  <si>
-    <t>sub-044</t>
-  </si>
-  <si>
-    <t>sub-045</t>
-  </si>
-  <si>
-    <t>sub-046</t>
-  </si>
-  <si>
-    <t>sub-047</t>
-  </si>
-  <si>
-    <t>sub-049</t>
-  </si>
-  <si>
-    <t>sub-051</t>
-  </si>
-  <si>
-    <t>sub-052</t>
-  </si>
-  <si>
-    <t>sub-053</t>
-  </si>
-  <si>
-    <t>sub-054</t>
-  </si>
-  <si>
-    <t>sub-056</t>
-  </si>
-  <si>
-    <t>sub-057</t>
-  </si>
-  <si>
-    <t>sub-059</t>
-  </si>
-  <si>
-    <t>sub-062</t>
-  </si>
-  <si>
-    <t>sub-064</t>
-  </si>
-  <si>
-    <t>sub-065</t>
-  </si>
-  <si>
-    <t>sub-066</t>
-  </si>
-  <si>
-    <t>sub-068</t>
-  </si>
-  <si>
-    <t>sub-069</t>
-  </si>
-  <si>
-    <t>sub-070</t>
-  </si>
-  <si>
-    <t>sub-071</t>
-  </si>
-  <si>
-    <t>sub-072</t>
-  </si>
-  <si>
-    <t>sub-073</t>
-  </si>
-  <si>
-    <t>sub-074</t>
-  </si>
-  <si>
-    <t>sub-075</t>
-  </si>
-  <si>
-    <t>sub-076</t>
-  </si>
-  <si>
-    <t>sub-077</t>
-  </si>
-  <si>
-    <t>sub-078</t>
-  </si>
-  <si>
-    <t>sub-079</t>
-  </si>
-  <si>
-    <t>sub-081</t>
-  </si>
-  <si>
-    <t>sub-082</t>
-  </si>
-  <si>
-    <t>sub-083</t>
-  </si>
-  <si>
-    <t>sub-084</t>
-  </si>
-  <si>
-    <t>sub-085</t>
-  </si>
-  <si>
-    <t>sub-086</t>
-  </si>
-  <si>
-    <t>sub-088</t>
-  </si>
-  <si>
-    <t>sub-089</t>
-  </si>
-  <si>
-    <t>sub-090</t>
-  </si>
-  <si>
-    <t>sub-091</t>
-  </si>
-  <si>
-    <t>sub-093</t>
-  </si>
-  <si>
-    <t>sub-094</t>
-  </si>
-  <si>
-    <t>sub-096</t>
-  </si>
-  <si>
-    <t>sub-097</t>
-  </si>
-  <si>
-    <t>sub-098</t>
-  </si>
-  <si>
-    <t>sub-099</t>
-  </si>
-  <si>
-    <t>sub-100</t>
-  </si>
-  <si>
-    <t>sub-101</t>
-  </si>
-  <si>
-    <t>sub-102</t>
-  </si>
-  <si>
-    <t>sub-103</t>
-  </si>
-  <si>
-    <t>sub-104</t>
-  </si>
-  <si>
-    <t>sub-105</t>
-  </si>
-  <si>
-    <t>sub-106</t>
-  </si>
-  <si>
-    <t>sub-107</t>
-  </si>
-  <si>
-    <t>sub-108</t>
-  </si>
-  <si>
-    <t>sub-109</t>
-  </si>
-  <si>
-    <t>sub-110</t>
-  </si>
-  <si>
-    <t>sub-111</t>
-  </si>
-  <si>
-    <t>sub-112</t>
-  </si>
-  <si>
-    <t>sub-113</t>
-  </si>
-  <si>
-    <t>sub-114</t>
-  </si>
-  <si>
-    <t>sub-115</t>
-  </si>
-  <si>
-    <t>sub-116</t>
-  </si>
-  <si>
-    <t>sub-117</t>
-  </si>
-  <si>
-    <t>sub-118</t>
-  </si>
-  <si>
-    <t>sub-120</t>
-  </si>
-  <si>
-    <t>sub-122</t>
-  </si>
-  <si>
-    <t>sub-123</t>
-  </si>
-  <si>
-    <t>sub-124</t>
-  </si>
-  <si>
-    <t>sub-125</t>
-  </si>
-  <si>
-    <t>sub-126</t>
-  </si>
-  <si>
-    <t>sub-127</t>
-  </si>
-  <si>
-    <t>sub-128</t>
-  </si>
-  <si>
-    <t>sub-129</t>
-  </si>
-  <si>
-    <t>sub-130</t>
-  </si>
-  <si>
-    <t>sub-131</t>
-  </si>
-  <si>
-    <t>h_strong</t>
-  </si>
-  <si>
-    <t>n_strong</t>
-  </si>
-  <si>
-    <t>s_strong</t>
-  </si>
-  <si>
-    <t>h_weak</t>
-  </si>
-  <si>
-    <t>n_weak</t>
-  </si>
-  <si>
-    <t>s_weak</t>
-  </si>
-  <si>
-    <t>weak</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>neutral</t>
-  </si>
-  <si>
-    <t>subName</t>
-  </si>
-  <si>
-    <t>sub-004</t>
-  </si>
-  <si>
-    <t>sub-006</t>
-  </si>
-  <si>
-    <t>sub-007</t>
-  </si>
-  <si>
-    <t>sub-008</t>
-  </si>
-  <si>
-    <t>sub-009</t>
-  </si>
-  <si>
-    <t>sub-010</t>
-  </si>
-  <si>
-    <t>sub-011</t>
-  </si>
-  <si>
-    <t>sub-012</t>
-  </si>
-  <si>
-    <t>sub-014</t>
-  </si>
-  <si>
-    <t>sub-015</t>
-  </si>
-  <si>
-    <t>sub-017</t>
-  </si>
-  <si>
-    <t>sub-018</t>
-  </si>
-  <si>
-    <t>sub-019</t>
-  </si>
-  <si>
-    <t>sub-020</t>
-  </si>
-  <si>
-    <t>sub-021</t>
-  </si>
-  <si>
-    <t>sub-022</t>
-  </si>
-  <si>
-    <t>sub-024</t>
-  </si>
-  <si>
-    <t>sub-025</t>
-  </si>
-  <si>
-    <t>sub-026</t>
-  </si>
-  <si>
-    <t>sub-027</t>
-  </si>
-  <si>
-    <t>sub-031</t>
-  </si>
-  <si>
-    <t>sub-032</t>
-  </si>
-  <si>
-    <t>sub-033</t>
-  </si>
-  <si>
-    <t>sub-034</t>
-  </si>
-  <si>
-    <t>sub-035</t>
-  </si>
-  <si>
-    <t>sub-036</t>
-  </si>
-  <si>
-    <t>sub-037</t>
-  </si>
-  <si>
-    <t>sub-038</t>
-  </si>
-  <si>
-    <t>sub-039</t>
-  </si>
-  <si>
-    <t>sub-040</t>
-  </si>
-  <si>
-    <t>sub-041</t>
-  </si>
-  <si>
-    <t>sub-042</t>
-  </si>
-  <si>
-    <t>sub-043</t>
-  </si>
-  <si>
-    <t>sub-044</t>
-  </si>
-  <si>
-    <t>sub-045</t>
-  </si>
-  <si>
-    <t>sub-046</t>
-  </si>
-  <si>
-    <t>sub-047</t>
-  </si>
-  <si>
-    <t>sub-049</t>
-  </si>
-  <si>
-    <t>sub-051</t>
-  </si>
-  <si>
-    <t>sub-052</t>
-  </si>
-  <si>
-    <t>sub-053</t>
-  </si>
-  <si>
-    <t>sub-054</t>
-  </si>
-  <si>
-    <t>sub-056</t>
-  </si>
-  <si>
-    <t>sub-057</t>
-  </si>
-  <si>
-    <t>sub-059</t>
-  </si>
-  <si>
-    <t>sub-062</t>
-  </si>
-  <si>
-    <t>sub-064</t>
-  </si>
-  <si>
-    <t>sub-065</t>
-  </si>
-  <si>
-    <t>sub-066</t>
-  </si>
-  <si>
-    <t>sub-068</t>
-  </si>
-  <si>
-    <t>sub-069</t>
-  </si>
-  <si>
-    <t>sub-070</t>
-  </si>
-  <si>
-    <t>sub-071</t>
-  </si>
-  <si>
-    <t>sub-072</t>
-  </si>
-  <si>
-    <t>sub-073</t>
-  </si>
-  <si>
-    <t>sub-074</t>
-  </si>
-  <si>
-    <t>sub-075</t>
-  </si>
-  <si>
-    <t>sub-076</t>
-  </si>
-  <si>
-    <t>sub-077</t>
-  </si>
-  <si>
-    <t>sub-078</t>
-  </si>
-  <si>
-    <t>sub-079</t>
-  </si>
-  <si>
-    <t>sub-081</t>
-  </si>
-  <si>
-    <t>sub-082</t>
-  </si>
-  <si>
-    <t>sub-083</t>
-  </si>
-  <si>
-    <t>sub-084</t>
-  </si>
-  <si>
-    <t>sub-085</t>
-  </si>
-  <si>
-    <t>sub-086</t>
-  </si>
-  <si>
-    <t>sub-088</t>
-  </si>
-  <si>
-    <t>sub-089</t>
-  </si>
-  <si>
-    <t>sub-090</t>
-  </si>
-  <si>
-    <t>sub-091</t>
-  </si>
-  <si>
-    <t>sub-093</t>
-  </si>
-  <si>
-    <t>sub-094</t>
-  </si>
-  <si>
-    <t>sub-096</t>
-  </si>
-  <si>
-    <t>sub-097</t>
-  </si>
-  <si>
-    <t>sub-098</t>
-  </si>
-  <si>
-    <t>sub-099</t>
-  </si>
-  <si>
-    <t>sub-100</t>
-  </si>
-  <si>
-    <t>sub-101</t>
-  </si>
-  <si>
-    <t>sub-102</t>
-  </si>
-  <si>
-    <t>sub-103</t>
-  </si>
-  <si>
-    <t>sub-104</t>
-  </si>
-  <si>
-    <t>sub-105</t>
-  </si>
-  <si>
-    <t>sub-106</t>
-  </si>
-  <si>
-    <t>sub-107</t>
-  </si>
-  <si>
-    <t>sub-108</t>
-  </si>
-  <si>
-    <t>sub-109</t>
-  </si>
-  <si>
-    <t>sub-110</t>
-  </si>
-  <si>
-    <t>sub-111</t>
-  </si>
-  <si>
-    <t>sub-112</t>
-  </si>
-  <si>
-    <t>sub-113</t>
-  </si>
-  <si>
-    <t>sub-114</t>
-  </si>
-  <si>
-    <t>sub-115</t>
-  </si>
-  <si>
-    <t>sub-116</t>
-  </si>
-  <si>
-    <t>sub-117</t>
-  </si>
-  <si>
-    <t>sub-118</t>
-  </si>
-  <si>
-    <t>sub-120</t>
-  </si>
-  <si>
-    <t>sub-122</t>
-  </si>
-  <si>
-    <t>sub-123</t>
-  </si>
-  <si>
-    <t>sub-124</t>
-  </si>
-  <si>
-    <t>sub-125</t>
-  </si>
-  <si>
-    <t>sub-126</t>
-  </si>
-  <si>
-    <t>sub-127</t>
-  </si>
-  <si>
-    <t>sub-128</t>
-  </si>
-  <si>
-    <t>sub-129</t>
-  </si>
-  <si>
-    <t>sub-130</t>
-  </si>
-  <si>
-    <t>sub-131</t>
-  </si>
-  <si>
-    <t>h_strong</t>
-  </si>
-  <si>
-    <t>n_strong</t>
-  </si>
-  <si>
-    <t>s_strong</t>
-  </si>
-  <si>
-    <t>h_weak</t>
-  </si>
-  <si>
-    <t>n_weak</t>
-  </si>
-  <si>
-    <t>s_weak</t>
-  </si>
-  <si>
-    <t>weak</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>neutral</t>
-  </si>
-  <si>
     <t>group</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>MDD</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>MDD</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>MDD</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>MDD</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>MDD</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>MDD</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>MDD</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>MDD</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>MDD</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>MDD</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>MDD</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>MDD</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>MDD</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>MDD</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>MDD</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>MDD</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>MDD</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>MDD</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>MDD</t>
+  </si>
+  <si>
+    <t>HC</t>
   </si>
   <si>
     <t>MDD</t>
@@ -1587,7 +993,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1597,18 +1003,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1623,4445 +1025,4445 @@
   <cols>
     <col min="1" max="1" width="9.5703125" customWidth="true"/>
     <col min="2" max="2" width="14.7109375" customWidth="true"/>
-    <col min="3" max="3" width="14.42578125" customWidth="true"/>
-    <col min="4" max="4" width="13.7109375" customWidth="true"/>
-    <col min="5" max="5" width="15.42578125" customWidth="true"/>
-    <col min="6" max="6" width="14.42578125" customWidth="true"/>
-    <col min="7" max="7" width="14.42578125" customWidth="true"/>
+    <col min="3" max="3" width="15.42578125" customWidth="true"/>
+    <col min="4" max="4" width="14.7109375" customWidth="true"/>
+    <col min="5" max="5" width="14.42578125" customWidth="true"/>
+    <col min="6" max="6" width="15.42578125" customWidth="true"/>
+    <col min="7" max="7" width="15.42578125" customWidth="true"/>
     <col min="8" max="8" width="14.42578125" customWidth="true"/>
-    <col min="9" max="9" width="14.42578125" customWidth="true"/>
-    <col min="10" max="10" width="15.42578125" customWidth="true"/>
-    <col min="11" max="11" width="13.7109375" customWidth="true"/>
+    <col min="9" max="9" width="15.42578125" customWidth="true"/>
+    <col min="10" max="10" width="14.42578125" customWidth="true"/>
+    <col min="11" max="11" width="15.7109375" customWidth="true"/>
     <col min="12" max="12" width="14.42578125" customWidth="true"/>
     <col min="13" max="13" width="6.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>358</v>
+        <v>160</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>466</v>
+        <v>268</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>467</v>
+        <v>269</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>468</v>
+        <v>270</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>469</v>
+        <v>271</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>470</v>
+        <v>272</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>471</v>
+        <v>273</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>472</v>
+        <v>274</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>473</v>
+        <v>275</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>474</v>
+        <v>276</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>475</v>
+        <v>277</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>476</v>
+        <v>278</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>477</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>359</v>
+        <v>161</v>
       </c>
       <c r="B2" s="0">
-        <v>0.89062482118606567</v>
+        <v>-0.42589735984802246</v>
       </c>
       <c r="C2" s="0">
-        <v>2.9619011878967285</v>
+        <v>0.35027870535850525</v>
       </c>
       <c r="D2" s="0">
-        <v>1.1104631423950195</v>
+        <v>0.005918942391872406</v>
       </c>
       <c r="E2" s="0">
-        <v>1.9652633666992188</v>
+        <v>-0.16074156761169434</v>
       </c>
       <c r="F2" s="0">
-        <v>1.6690614223480225</v>
+        <v>0.39878219366073608</v>
       </c>
       <c r="G2" s="0">
-        <v>2.7293508052825928</v>
+        <v>0.08856220543384552</v>
       </c>
       <c r="H2" s="0">
-        <v>2.4376592636108398</v>
+        <v>0.21061576902866364</v>
       </c>
       <c r="I2" s="0">
-        <v>1.8768241405487061</v>
+        <v>0.11036966741085052</v>
       </c>
       <c r="J2" s="0">
-        <v>1.5798077583312988</v>
+        <v>-0.28638729453086853</v>
       </c>
       <c r="K2" s="0">
-        <v>2.0900931358337402</v>
+        <v>0.16555100679397583</v>
       </c>
       <c r="L2" s="0">
-        <v>2.315481424331665</v>
+        <v>0.37453040480613708</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>478</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>360</v>
+        <v>162</v>
       </c>
       <c r="B3" s="0">
-        <v>-2.7088768482208252</v>
+        <v>-0.30641171336174011</v>
       </c>
       <c r="C3" s="0">
-        <v>-2.3203299045562744</v>
+        <v>-1.0497720241546631</v>
       </c>
       <c r="D3" s="0">
-        <v>-2.5672385692596436</v>
+        <v>-0.98721104860305786</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.064292773604393005</v>
+        <v>0.22916588187217712</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.41271376609802246</v>
+        <v>0.26619356870651245</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.23498883843421936</v>
+        <v>0.16931062936782837</v>
       </c>
       <c r="H3" s="0">
-        <v>0.10654187202453613</v>
+        <v>0.40149503946304321</v>
       </c>
       <c r="I3" s="0">
-        <v>-1.8909882307052612</v>
+        <v>-0.46916073560714722</v>
       </c>
       <c r="J3" s="0">
-        <v>-1.4670720100402832</v>
+        <v>-0.054923120886087418</v>
       </c>
       <c r="K3" s="0">
-        <v>-1.2206963300704956</v>
+        <v>-0.27835997939109802</v>
       </c>
       <c r="L3" s="0">
-        <v>-1.2736761569976807</v>
+        <v>-0.30619028210639954</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>478</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>361</v>
+        <v>163</v>
       </c>
       <c r="B4" s="0">
-        <v>1.4069536924362183</v>
+        <v>0.34680277109146118</v>
       </c>
       <c r="C4" s="0">
-        <v>0.93492972850799561</v>
+        <v>0.020973306149244308</v>
       </c>
       <c r="D4" s="0">
-        <v>1.3791029453277588</v>
+        <v>0.10476207733154297</v>
       </c>
       <c r="E4" s="0">
-        <v>2.2314448356628418</v>
+        <v>0.37156331539154053</v>
       </c>
       <c r="F4" s="0">
-        <v>3.2111666202545166</v>
+        <v>1.7392539978027344</v>
       </c>
       <c r="G4" s="0">
-        <v>0.87369108200073242</v>
+        <v>-0.18196418881416321</v>
       </c>
       <c r="H4" s="0">
-        <v>2.9933769702911377</v>
+        <v>0.71661597490310669</v>
       </c>
       <c r="I4" s="0">
-        <v>1.2337899208068848</v>
+        <v>0.42689007520675659</v>
       </c>
       <c r="J4" s="0">
-        <v>2.9596061706542969</v>
+        <v>0.46685361862182617</v>
       </c>
       <c r="K4" s="0">
-        <v>1.0854829549789429</v>
+        <v>0.21391099691390991</v>
       </c>
       <c r="L4" s="0">
-        <v>2.0519719123840332</v>
+        <v>0.86420363187789917</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>479</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>362</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0">
-        <v>0.59980404376983643</v>
+        <v>-0.47075769305229187</v>
       </c>
       <c r="C5" s="0">
-        <v>-1.1534311771392822</v>
+        <v>-1.9798809289932251</v>
       </c>
       <c r="D5" s="0">
-        <v>0.75069713592529297</v>
+        <v>-0.53888159990310669</v>
       </c>
       <c r="E5" s="0">
-        <v>0.67410379648208618</v>
+        <v>-0.28148135542869568</v>
       </c>
       <c r="F5" s="0">
-        <v>0.67474222183227539</v>
+        <v>0.15150323510169983</v>
       </c>
       <c r="G5" s="0">
-        <v>1.3745425939559937</v>
+        <v>0.71589839458465576</v>
       </c>
       <c r="H5" s="0">
-        <v>1.1856606006622314</v>
+        <v>0.40383666753768921</v>
       </c>
       <c r="I5" s="0">
-        <v>0.29065194725990295</v>
+        <v>-0.89431363344192505</v>
       </c>
       <c r="J5" s="0">
-        <v>0.63496369123458862</v>
+        <v>-0.34025666117668152</v>
       </c>
       <c r="K5" s="0">
-        <v>1.4037094116210938</v>
+        <v>0.3099503219127655</v>
       </c>
       <c r="L5" s="0">
-        <v>0.015204960480332375</v>
+        <v>-0.85826736688613892</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>479</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>363</v>
+        <v>165</v>
       </c>
       <c r="B6" s="0">
-        <v>4.5166168212890625</v>
+        <v>1.2113399505615234</v>
       </c>
       <c r="C6" s="0">
-        <v>2.7861835956573486</v>
+        <v>0.46139132976531982</v>
       </c>
       <c r="D6" s="0">
-        <v>5.7709851264953613</v>
+        <v>2.0737934112548828</v>
       </c>
       <c r="E6" s="0">
-        <v>3.5645275115966797</v>
+        <v>0.79690545797348022</v>
       </c>
       <c r="F6" s="0">
-        <v>4.3063812255859375</v>
+        <v>1.2413932085037231</v>
       </c>
       <c r="G6" s="0">
-        <v>4.7590117454528809</v>
+        <v>1.9011836051940918</v>
       </c>
       <c r="H6" s="0">
-        <v>4.254723072052002</v>
+        <v>1.5376057624816895</v>
       </c>
       <c r="I6" s="0">
-        <v>4.2969470024108887</v>
+        <v>1.2245442867279053</v>
       </c>
       <c r="J6" s="0">
-        <v>4.0821685791015625</v>
+        <v>1.0419867038726807</v>
       </c>
       <c r="K6" s="0">
-        <v>5.2077169418334961</v>
+        <v>2.1224932670593262</v>
       </c>
       <c r="L6" s="0">
-        <v>3.5319404602050781</v>
+        <v>0.9843171238899231</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>479</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>364</v>
+        <v>166</v>
       </c>
       <c r="B7" s="0">
-        <v>-4.3682727813720703</v>
+        <v>-3.0974006652832031</v>
       </c>
       <c r="C7" s="0">
-        <v>-2.9147801399230957</v>
+        <v>-1.8242647647857666</v>
       </c>
       <c r="D7" s="0">
-        <v>-3.0269222259521484</v>
+        <v>-3.1805145740509033</v>
       </c>
       <c r="E7" s="0">
-        <v>-1.2526998519897461</v>
+        <v>-0.51410472393035889</v>
       </c>
       <c r="F7" s="0">
-        <v>-5.0524144172668457</v>
+        <v>-2.0151548385620117</v>
       </c>
       <c r="G7" s="0">
-        <v>-2.0094175338745117</v>
+        <v>-2.4908864498138428</v>
       </c>
       <c r="H7" s="0">
-        <v>-2.6821112632751465</v>
+        <v>-1.2440712451934814</v>
       </c>
       <c r="I7" s="0">
-        <v>-3.2430641651153564</v>
+        <v>-2.1412789821624756</v>
       </c>
       <c r="J7" s="0">
-        <v>-2.3811993598937988</v>
+        <v>-1.298353910446167</v>
       </c>
       <c r="K7" s="0">
-        <v>-2.4082999229431152</v>
+        <v>-1.9393234252929688</v>
       </c>
       <c r="L7" s="0">
-        <v>-3.7898726463317871</v>
+        <v>-1.8262841701507568</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>480</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>365</v>
+        <v>167</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.20717167854309082</v>
+        <v>0.023316070437431335</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.25891256332397461</v>
+        <v>-0.078009285032749176</v>
       </c>
       <c r="D8" s="0">
-        <v>-1.5171124935150146</v>
+        <v>-0.12339332699775696</v>
       </c>
       <c r="E8" s="0">
-        <v>0.27026987075805664</v>
+        <v>0.50644016265869141</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.36793696880340576</v>
+        <v>-0.049678497016429901</v>
       </c>
       <c r="G8" s="0">
-        <v>-0.24653291702270508</v>
+        <v>-0.018417537212371826</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.10103210806846619</v>
+        <v>0.14775088429450989</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.45057475566864014</v>
+        <v>0.14951705932617188</v>
       </c>
       <c r="J8" s="0">
-        <v>0.061995387077331543</v>
+        <v>0.27659198641777039</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.55915737152099609</v>
+        <v>0.0073419064283370972</v>
       </c>
       <c r="L8" s="0">
-        <v>-0.31342470645904541</v>
+        <v>0.23800866305828094</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>480</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>366</v>
+        <v>168</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.61980104446411133</v>
+        <v>-1.4038629531860352</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.60090923309326172</v>
+        <v>-1.3989214897155762</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.9711606502532959</v>
+        <v>-1.2196460962295532</v>
       </c>
       <c r="E9" s="0">
-        <v>0.56694608926773071</v>
+        <v>-0.34279882907867432</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.35735371708869934</v>
+        <v>-0.62992334365844727</v>
       </c>
       <c r="G9" s="0">
-        <v>0.32702603936195374</v>
+        <v>-0.22050043940544128</v>
       </c>
       <c r="H9" s="0">
-        <v>0.60404360294342041</v>
+        <v>-0.26969572901725769</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.58197116851806641</v>
+        <v>-1.1130694150924683</v>
       </c>
       <c r="J9" s="0">
-        <v>0.33914071321487427</v>
+        <v>-0.73198211193084717</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.1697365790605545</v>
+        <v>-0.67381644248962402</v>
       </c>
       <c r="L9" s="0">
-        <v>0.060693174600601196</v>
+        <v>-0.75420349836349487</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>481</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>367</v>
+        <v>169</v>
       </c>
       <c r="B10" s="0">
-        <v>0.0032671689987182617</v>
+        <v>-0.52537739276885986</v>
       </c>
       <c r="C10" s="0">
-        <v>0.34887984395027161</v>
+        <v>-0.42083129286766052</v>
       </c>
       <c r="D10" s="0">
-        <v>0.20895332098007202</v>
+        <v>-0.71114546060562134</v>
       </c>
       <c r="E10" s="0">
-        <v>0.22954124212265015</v>
+        <v>-0.35028991103172302</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.40884155035018921</v>
+        <v>-1.4311933517456055</v>
       </c>
       <c r="G10" s="0">
-        <v>0.54185307025909424</v>
+        <v>-0.66231989860534668</v>
       </c>
       <c r="H10" s="0">
-        <v>0.62407529354095459</v>
+        <v>-0.38386920094490051</v>
       </c>
       <c r="I10" s="0">
-        <v>0.21451513469219208</v>
+        <v>-0.48586684465408325</v>
       </c>
       <c r="J10" s="0">
-        <v>0.43670755624771118</v>
+        <v>-0.41498956084251404</v>
       </c>
       <c r="K10" s="0">
-        <v>0.70295220613479614</v>
+        <v>-0.55505502223968506</v>
       </c>
       <c r="L10" s="0">
-        <v>0.088894061744213104</v>
+        <v>-0.91469299793243408</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>482</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>368</v>
+        <v>170</v>
       </c>
       <c r="B11" s="0">
-        <v>3.0349411964416504</v>
+        <v>0.098609521985054016</v>
       </c>
       <c r="C11" s="0">
-        <v>2.4185068607330322</v>
+        <v>-0.11259725689888</v>
       </c>
       <c r="D11" s="0">
-        <v>1.0072364807128906</v>
+        <v>0.21373820304870605</v>
       </c>
       <c r="E11" s="0">
-        <v>2.6027970314025879</v>
+        <v>0.84537559747695923</v>
       </c>
       <c r="F11" s="0">
-        <v>2.8549582958221436</v>
+        <v>-0.489654541015625</v>
       </c>
       <c r="G11" s="0">
-        <v>1.6381766796112061</v>
+        <v>0.18215151131153107</v>
       </c>
       <c r="H11" s="0">
-        <v>2.6537518501281738</v>
+        <v>0.25754442811012268</v>
       </c>
       <c r="I11" s="0">
-        <v>2.3714101314544678</v>
+        <v>0.16683802008628845</v>
       </c>
       <c r="J11" s="0">
-        <v>2.9067103862762451</v>
+        <v>0.46954196691513062</v>
       </c>
       <c r="K11" s="0">
-        <v>1.3523662090301514</v>
+        <v>0.32181692123413086</v>
       </c>
       <c r="L11" s="0">
-        <v>2.6404950618743896</v>
+        <v>0.13312117755413055</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>482</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>369</v>
+        <v>171</v>
       </c>
       <c r="B12" s="0">
-        <v>-1.6695330142974854</v>
+        <v>-0.10391950607299805</v>
       </c>
       <c r="C12" s="0">
-        <v>2.2852363586425781</v>
+        <v>0.62337398529052734</v>
       </c>
       <c r="D12" s="0">
-        <v>-3.7350201606750488</v>
+        <v>-0.7151634693145752</v>
       </c>
       <c r="E12" s="0">
-        <v>-4.124025821685791</v>
+        <v>-0.23364713788032532</v>
       </c>
       <c r="F12" s="0">
-        <v>-2.9222145080566406</v>
+        <v>-0.51794701814651489</v>
       </c>
       <c r="G12" s="0">
-        <v>-2.5713596343994141</v>
+        <v>-0.070094525814056396</v>
       </c>
       <c r="H12" s="0">
-        <v>-3.1903047561645508</v>
+        <v>-0.23246592283248901</v>
       </c>
       <c r="I12" s="0">
-        <v>-1.043310284614563</v>
+        <v>-0.004790961742401123</v>
       </c>
       <c r="J12" s="0">
-        <v>-2.8653120994567871</v>
+        <v>-0.16712018847465515</v>
       </c>
       <c r="K12" s="0">
-        <v>-3.1483001708984375</v>
+        <v>-0.32728070020675659</v>
       </c>
       <c r="L12" s="0">
-        <v>-0.34036904573440552</v>
+        <v>0.13865724205970764</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>482</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>370</v>
+        <v>172</v>
       </c>
       <c r="B13" s="0">
-        <v>-1.4375574588775635</v>
+        <v>-1.5127131938934326</v>
       </c>
       <c r="C13" s="0">
-        <v>-0.33305424451828003</v>
+        <v>-0.75960254669189453</v>
       </c>
       <c r="D13" s="0">
-        <v>-2.9706082344055176</v>
+        <v>-1.9916771650314331</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.49899923801422119</v>
+        <v>-0.46030589938163757</v>
       </c>
       <c r="F13" s="0">
-        <v>-0.26317942142486572</v>
+        <v>-1.0069403648376465</v>
       </c>
       <c r="G13" s="0">
-        <v>-2.5770361423492432</v>
+        <v>-2.030684232711792</v>
       </c>
       <c r="H13" s="0">
-        <v>-1.1249709129333496</v>
+        <v>-0.91878819465637207</v>
       </c>
       <c r="I13" s="0">
-        <v>-0.85232758522033691</v>
+        <v>-0.68265920877456665</v>
       </c>
       <c r="J13" s="0">
-        <v>0.34713524580001831</v>
+        <v>-0.50651091337203979</v>
       </c>
       <c r="K13" s="0">
-        <v>-1.6316843032836914</v>
+        <v>-1.6981877088546753</v>
       </c>
       <c r="L13" s="0">
-        <v>-0.10855969786643982</v>
+        <v>-0.80204677581787109</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>482</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>371</v>
+        <v>173</v>
       </c>
       <c r="B14" s="0">
-        <v>-1.6991961002349854</v>
+        <v>-0.63707923889160156</v>
       </c>
       <c r="C14" s="0">
-        <v>-2.5145249366760254</v>
+        <v>-1.1177552938461304</v>
       </c>
       <c r="D14" s="0">
-        <v>1.2698109149932861</v>
+        <v>-0.15898363292217255</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.43675839900970459</v>
+        <v>-0.37105178833007813</v>
       </c>
       <c r="F14" s="0">
-        <v>1.3801882266998291</v>
+        <v>-0.31418579816818237</v>
       </c>
       <c r="G14" s="0">
-        <v>0.18837162852287292</v>
+        <v>-0.48892456293106079</v>
       </c>
       <c r="H14" s="0">
-        <v>0.41959452629089355</v>
+        <v>-0.23562908172607422</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.44166511297225952</v>
+        <v>-0.25470378994941711</v>
       </c>
       <c r="J14" s="0">
-        <v>-1.0375375747680664</v>
+        <v>-0.50644075870513916</v>
       </c>
       <c r="K14" s="0">
-        <v>1.1112930774688721</v>
+        <v>-0.20157541334629059</v>
       </c>
       <c r="L14" s="0">
-        <v>-0.27870267629623413</v>
+        <v>-0.59578037261962891</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>482</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>372</v>
+        <v>174</v>
       </c>
       <c r="B15" s="0">
-        <v>-2.6101799011230469</v>
+        <v>-0.71269989013671875</v>
       </c>
       <c r="C15" s="0">
-        <v>-1.6916542053222656</v>
+        <v>-1.0876396894454956</v>
       </c>
       <c r="D15" s="0">
-        <v>0.28159031271934509</v>
+        <v>-1.1204217672348022</v>
       </c>
       <c r="E15" s="0">
-        <v>-1.3135441541671753</v>
+        <v>-2.0520453453063965</v>
       </c>
       <c r="F15" s="0">
-        <v>0.38351476192474365</v>
+        <v>-0.37993776798248291</v>
       </c>
       <c r="G15" s="0">
-        <v>2.7997720241546631</v>
+        <v>-0.93913745880126953</v>
       </c>
       <c r="H15" s="0">
-        <v>1.0981826782226563</v>
+        <v>-0.84207499027252197</v>
       </c>
       <c r="I15" s="0">
-        <v>-0.418527752161026</v>
+        <v>-0.67271673679351807</v>
       </c>
       <c r="J15" s="0">
-        <v>-0.68556833267211914</v>
+        <v>-1.2187932729721069</v>
       </c>
       <c r="K15" s="0">
-        <v>1.5406811237335205</v>
+        <v>-1.0297794342041016</v>
       </c>
       <c r="L15" s="0">
-        <v>0.098666802048683167</v>
+        <v>-0.45270043611526489</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>483</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>373</v>
+        <v>175</v>
       </c>
       <c r="B16" s="0">
-        <v>0.39066213369369507</v>
+        <v>0.59598225355148315</v>
       </c>
       <c r="C16" s="0">
-        <v>-1.3762362003326416</v>
+        <v>-0.48127537965774536</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.25530251860618591</v>
+        <v>0.4083716869354248</v>
       </c>
       <c r="E16" s="0">
-        <v>0.035170119255781174</v>
+        <v>-0.36914640665054321</v>
       </c>
       <c r="F16" s="0">
-        <v>1.3125834465026855</v>
+        <v>0.49689289927482605</v>
       </c>
       <c r="G16" s="0">
-        <v>1.2402387857437134</v>
+        <v>-0.43143048882484436</v>
       </c>
       <c r="H16" s="0">
-        <v>0.87939506769180298</v>
+        <v>-0.11092917621135712</v>
       </c>
       <c r="I16" s="0">
-        <v>-0.35414883494377136</v>
+        <v>0.21398675441741943</v>
       </c>
       <c r="J16" s="0">
-        <v>0.22207833826541901</v>
+        <v>0.13829246163368225</v>
       </c>
       <c r="K16" s="0">
-        <v>0.53479480743408203</v>
+        <v>-0.035297442227602005</v>
       </c>
       <c r="L16" s="0">
-        <v>-0.016009844839572906</v>
+        <v>0.05697106197476387</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>484</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>374</v>
+        <v>176</v>
       </c>
       <c r="B17" s="0">
-        <v>1.2635685205459595</v>
+        <v>0.089711308479309082</v>
       </c>
       <c r="C17" s="0">
-        <v>-0.29146718978881836</v>
+        <v>-0.42668288946151733</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.10770462453365326</v>
+        <v>0.076428778469562531</v>
       </c>
       <c r="E17" s="0">
-        <v>-1.5392744541168213</v>
+        <v>-0.15364781022071838</v>
       </c>
       <c r="F17" s="0">
-        <v>0.64246439933776855</v>
+        <v>-0.011332511901855469</v>
       </c>
       <c r="G17" s="0">
-        <v>-1.4390522241592407</v>
+        <v>-0.27311459183692932</v>
       </c>
       <c r="H17" s="0">
-        <v>-0.73691195249557495</v>
+        <v>0.10401527583599091</v>
       </c>
       <c r="I17" s="0">
-        <v>0.38572961091995239</v>
+        <v>0.029205279424786568</v>
       </c>
       <c r="J17" s="0">
-        <v>-0.1378529816865921</v>
+        <v>-0.031968213617801666</v>
       </c>
       <c r="K17" s="0">
-        <v>-0.72143220901489258</v>
+        <v>0.08636164665222168</v>
       </c>
       <c r="L17" s="0">
-        <v>0.17157453298568726</v>
+        <v>-0.04521072655916214</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>484</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>375</v>
+        <v>177</v>
       </c>
       <c r="B18" s="0">
-        <v>0.14157399535179138</v>
+        <v>0.52656346559524536</v>
       </c>
       <c r="C18" s="0">
-        <v>0.39726251363754272</v>
+        <v>0.52491474151611328</v>
       </c>
       <c r="D18" s="0">
-        <v>1.1648614406585693</v>
+        <v>0.73373615741729736</v>
       </c>
       <c r="E18" s="0">
-        <v>1.268587589263916</v>
+        <v>0.67132318019866943</v>
       </c>
       <c r="F18" s="0">
-        <v>1.6921948194503784</v>
+        <v>0.70236408710479736</v>
       </c>
       <c r="G18" s="0">
-        <v>-0.092358231544494629</v>
+        <v>0.28983026742935181</v>
       </c>
       <c r="H18" s="0">
-        <v>1.0600186586380005</v>
+        <v>0.61234217882156372</v>
       </c>
       <c r="I18" s="0">
-        <v>0.81729906797409058</v>
+        <v>0.66466844081878662</v>
       </c>
       <c r="J18" s="0">
-        <v>0.84045308828353882</v>
+        <v>0.66190671920776367</v>
       </c>
       <c r="K18" s="0">
-        <v>0.84242105484008789</v>
+        <v>0.58545601367950439</v>
       </c>
       <c r="L18" s="0">
-        <v>1.0550849437713623</v>
+        <v>0.72563272714614868</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>484</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>376</v>
+        <v>178</v>
       </c>
       <c r="B19" s="0">
-        <v>-1.4669802188873291</v>
+        <v>-0.19872568547725677</v>
       </c>
       <c r="C19" s="0">
-        <v>-2.7371532917022705</v>
+        <v>-0.30115121603012085</v>
       </c>
       <c r="D19" s="0">
-        <v>0.75685775279998779</v>
+        <v>0.14030632376670837</v>
       </c>
       <c r="E19" s="0">
-        <v>-0.40277230739593506</v>
+        <v>-0.42250663042068481</v>
       </c>
       <c r="F19" s="0">
-        <v>-1.1651167869567871</v>
+        <v>-0.42564699053764343</v>
       </c>
       <c r="G19" s="0">
-        <v>0.2349892258644104</v>
+        <v>0.037928208708763123</v>
       </c>
       <c r="H19" s="0">
-        <v>-0.082663558423519135</v>
+        <v>-0.19329638779163361</v>
       </c>
       <c r="I19" s="0">
-        <v>-1.1813960075378418</v>
+        <v>-0.031240500509738922</v>
       </c>
       <c r="J19" s="0">
-        <v>-0.80655151605606079</v>
+        <v>-0.17793494462966919</v>
       </c>
       <c r="K19" s="0">
-        <v>0.49142462015151978</v>
+        <v>0.20524534583091736</v>
       </c>
       <c r="L19" s="0">
-        <v>-1.572918176651001</v>
+        <v>-0.34145069122314453</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>484</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>377</v>
+        <v>179</v>
       </c>
       <c r="B20" s="0">
-        <v>0.4230419397354126</v>
+        <v>-0.26846408843994141</v>
       </c>
       <c r="C20" s="0">
-        <v>0.65624481439590454</v>
+        <v>0.33276107907295227</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.62081480026245117</v>
+        <v>0.25463426113128662</v>
       </c>
       <c r="E20" s="0">
-        <v>0.11161763966083527</v>
+        <v>-0.048542000353336334</v>
       </c>
       <c r="F20" s="0">
-        <v>-1.5781800746917725</v>
+        <v>-0.83217346668243408</v>
       </c>
       <c r="G20" s="0">
-        <v>0.013070322573184967</v>
+        <v>-0.11504381895065308</v>
       </c>
       <c r="H20" s="0">
-        <v>-0.48038691282272339</v>
+        <v>-0.30428868532180786</v>
       </c>
       <c r="I20" s="0">
-        <v>0.37422472238540649</v>
+        <v>0.40467894077301025</v>
       </c>
       <c r="J20" s="0">
-        <v>0.28343826532363892</v>
+        <v>0.14737111330032349</v>
       </c>
       <c r="K20" s="0">
-        <v>-0.13793505728244781</v>
+        <v>0.06979525089263916</v>
       </c>
       <c r="L20" s="0">
-        <v>-0.32533687353134155</v>
+        <v>-0.076293334364891052</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>485</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>378</v>
+        <v>180</v>
       </c>
       <c r="B21" s="0">
-        <v>-0.56677484512329102</v>
+        <v>-0.49534541368484497</v>
       </c>
       <c r="C21" s="0">
-        <v>1.2761396169662476</v>
+        <v>-0.10627678781747818</v>
       </c>
       <c r="D21" s="0">
-        <v>0.74635738134384155</v>
+        <v>0.1074872761964798</v>
       </c>
       <c r="E21" s="0">
-        <v>1.2556723356246948</v>
+        <v>-0.43466636538505554</v>
       </c>
       <c r="F21" s="0">
-        <v>1.8941893577575684</v>
+        <v>0.47820881009101868</v>
       </c>
       <c r="G21" s="0">
-        <v>0.18851736187934875</v>
+        <v>-0.0064159184694290161</v>
       </c>
       <c r="H21" s="0">
-        <v>1.1346486806869507</v>
+        <v>0.08514045923948288</v>
       </c>
       <c r="I21" s="0">
-        <v>0.59701633453369141</v>
+        <v>-0.017347715795040131</v>
       </c>
       <c r="J21" s="0">
-        <v>0.56221967935562134</v>
+        <v>-0.22906798124313354</v>
       </c>
       <c r="K21" s="0">
-        <v>0.49809986352920532</v>
+        <v>0.28020811080932617</v>
       </c>
       <c r="L21" s="0">
-        <v>1.6131564378738403</v>
+        <v>0.20674850046634674</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>486</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>379</v>
+        <v>181</v>
       </c>
       <c r="B22" s="0">
-        <v>0.4573076069355011</v>
+        <v>0.030748732388019562</v>
       </c>
       <c r="C22" s="0">
-        <v>1.1656732559204102</v>
+        <v>-0.2365928441286087</v>
       </c>
       <c r="D22" s="0">
-        <v>0.10577935725450516</v>
+        <v>-0.91055947542190552</v>
       </c>
       <c r="E22" s="0">
-        <v>0.13986644148826599</v>
+        <v>0.34380879998207092</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.62572437524795532</v>
+        <v>-1.3748373985290527</v>
       </c>
       <c r="G22" s="0">
-        <v>1.0397791862487793</v>
+        <v>-0.2135627418756485</v>
       </c>
       <c r="H22" s="0">
-        <v>0.50627398490905762</v>
+        <v>-0.28808110952377319</v>
       </c>
       <c r="I22" s="0">
-        <v>0.7865329384803772</v>
+        <v>0.043795477598905563</v>
       </c>
       <c r="J22" s="0">
-        <v>0.37406918406486511</v>
+        <v>0.22925570607185364</v>
       </c>
       <c r="K22" s="0">
-        <v>1.3143191337585449</v>
+        <v>-0.46790528297424316</v>
       </c>
       <c r="L22" s="0">
-        <v>0.55491256713867188</v>
+        <v>-0.3368171751499176</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>486</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>380</v>
+        <v>182</v>
       </c>
       <c r="B23" s="0">
-        <v>0.18008556962013245</v>
+        <v>0.11745551228523254</v>
       </c>
       <c r="C23" s="0">
-        <v>-1.4476598501205444</v>
+        <v>-0.36337190866470337</v>
       </c>
       <c r="D23" s="0">
-        <v>0.42259010672569275</v>
+        <v>0.030279919505119324</v>
       </c>
       <c r="E23" s="0">
-        <v>-1.8640633821487427</v>
+        <v>-0.80340695381164551</v>
       </c>
       <c r="F23" s="0">
-        <v>-2.0904803276062012</v>
+        <v>-0.88328421115875244</v>
       </c>
       <c r="G23" s="0">
-        <v>-2.734771728515625</v>
+        <v>-0.5246962308883667</v>
       </c>
       <c r="H23" s="0">
-        <v>-2.2194066047668457</v>
+        <v>-0.74044734239578247</v>
       </c>
       <c r="I23" s="0">
-        <v>0.05217444896697998</v>
+        <v>-0.078076422214508057</v>
       </c>
       <c r="J23" s="0">
-        <v>-0.87849164009094238</v>
+        <v>0.023688506335020065</v>
       </c>
       <c r="K23" s="0">
-        <v>-0.34515637159347534</v>
+        <v>0.42246353626251221</v>
       </c>
       <c r="L23" s="0">
-        <v>-0.62414515018463135</v>
+        <v>-0.53411650657653809</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>486</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>381</v>
+        <v>183</v>
       </c>
       <c r="B24" s="0">
-        <v>-3.8645567893981934</v>
+        <v>-1.9345706701278687</v>
       </c>
       <c r="C24" s="0">
-        <v>-2.3037221431732178</v>
+        <v>-1.5455570220947266</v>
       </c>
       <c r="D24" s="0">
-        <v>-2.864356517791748</v>
+        <v>-1.972093939781189</v>
       </c>
       <c r="E24" s="0">
-        <v>-1.3407027721405029</v>
+        <v>-1.5728703737258911</v>
       </c>
       <c r="F24" s="0">
-        <v>-1.9929404258728027</v>
+        <v>-1.0859172344207764</v>
       </c>
       <c r="G24" s="0">
-        <v>-2.0936636924743652</v>
+        <v>-1.469789981842041</v>
       </c>
       <c r="H24" s="0">
-        <v>-1.6764955520629883</v>
+        <v>-1.3392128944396973</v>
       </c>
       <c r="I24" s="0">
-        <v>-3.0108790397644043</v>
+        <v>-1.8000800609588623</v>
       </c>
       <c r="J24" s="0">
-        <v>-2.6026298999786377</v>
+        <v>-1.5899815559387207</v>
       </c>
       <c r="K24" s="0">
-        <v>-2.4231078624725342</v>
+        <v>-1.5138545036315918</v>
       </c>
       <c r="L24" s="0">
-        <v>-2.0115981101989746</v>
+        <v>-1.0244792699813843</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>486</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>382</v>
+        <v>184</v>
       </c>
       <c r="B25" s="0">
-        <v>0.58758926391601563</v>
+        <v>0.44497910141944885</v>
       </c>
       <c r="C25" s="0">
-        <v>2.7588238716125488</v>
+        <v>0.31282606720924377</v>
       </c>
       <c r="D25" s="0">
-        <v>3.5247187614440918</v>
+        <v>0.68814754486083984</v>
       </c>
       <c r="E25" s="0">
-        <v>1.4358384609222412</v>
+        <v>0.25558245182037354</v>
       </c>
       <c r="F25" s="0">
-        <v>1.3181028366088867</v>
+        <v>-0.17743143439292908</v>
       </c>
       <c r="G25" s="0">
-        <v>0.30108600854873657</v>
+        <v>-0.78533065319061279</v>
       </c>
       <c r="H25" s="0">
-        <v>1.0200554132461548</v>
+        <v>-0.15094473958015442</v>
       </c>
       <c r="I25" s="0">
-        <v>3.1693062782287598</v>
+        <v>0.4841974675655365</v>
       </c>
       <c r="J25" s="0">
-        <v>1.40773606300354</v>
+        <v>0.35443824529647827</v>
       </c>
       <c r="K25" s="0">
-        <v>1.9266786575317383</v>
+        <v>-0.0049134688451886177</v>
       </c>
       <c r="L25" s="0">
-        <v>2.0384633541107178</v>
+        <v>0.092537254095077515</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>486</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>383</v>
+        <v>185</v>
       </c>
       <c r="B26" s="0">
-        <v>-1.4201499223709106</v>
+        <v>-0.79733091592788696</v>
       </c>
       <c r="C26" s="0">
-        <v>0.34900754690170288</v>
+        <v>-0.042828783392906189</v>
       </c>
       <c r="D26" s="0">
-        <v>0.71996611356735229</v>
+        <v>-1.1527863740921021</v>
       </c>
       <c r="E26" s="0">
-        <v>-0.07630428671836853</v>
+        <v>-0.44863802194595337</v>
       </c>
       <c r="F26" s="0">
-        <v>0.069451272487640381</v>
+        <v>-0.38824751973152161</v>
       </c>
       <c r="G26" s="0">
-        <v>-0.20654475688934326</v>
+        <v>-0.12383632361888885</v>
       </c>
       <c r="H26" s="0">
-        <v>-0.039468526840209961</v>
+        <v>-0.16278631985187531</v>
       </c>
       <c r="I26" s="0">
-        <v>-0.060080409049987793</v>
+        <v>-0.56403475999832153</v>
       </c>
       <c r="J26" s="0">
-        <v>-0.74630463123321533</v>
+        <v>-0.59968411922454834</v>
       </c>
       <c r="K26" s="0">
-        <v>0.38367673754692078</v>
+        <v>-0.44153833389282227</v>
       </c>
       <c r="L26" s="0">
-        <v>0.21159851551055908</v>
+        <v>-0.095442324876785278</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>487</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>384</v>
+        <v>186</v>
       </c>
       <c r="B27" s="0">
-        <v>0.18111637234687805</v>
+        <v>-2.1990923881530762</v>
       </c>
       <c r="C27" s="0">
-        <v>-1.9010097980499268</v>
+        <v>-2.2723872661590576</v>
       </c>
       <c r="D27" s="0">
-        <v>1.0467655658721924</v>
+        <v>-0.87482941150665283</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.4909500777721405</v>
+        <v>-1.3454490900039673</v>
       </c>
       <c r="F27" s="0">
-        <v>2.0103898048400879</v>
+        <v>-1.2247411012649536</v>
       </c>
       <c r="G27" s="0">
-        <v>0.039394691586494446</v>
+        <v>-1.5830832719802856</v>
       </c>
       <c r="H27" s="0">
-        <v>1.0926867723464966</v>
+        <v>-1.0872428417205811</v>
       </c>
       <c r="I27" s="0">
-        <v>0.18133753538131714</v>
+        <v>-1.5969699621200562</v>
       </c>
       <c r="J27" s="0">
-        <v>0.15147335827350616</v>
+        <v>-1.7247933149337769</v>
       </c>
       <c r="K27" s="0">
-        <v>0.69384312629699707</v>
+        <v>-1.1764253377914429</v>
       </c>
       <c r="L27" s="0">
-        <v>0.74437522888183594</v>
+        <v>-1.557243824005127</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>487</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>385</v>
+        <v>187</v>
       </c>
       <c r="B28" s="0">
-        <v>1.4251945018768311</v>
+        <v>1.6871058940887451</v>
       </c>
       <c r="C28" s="0">
-        <v>-0.41746330261230469</v>
+        <v>0.14741572737693787</v>
       </c>
       <c r="D28" s="0">
-        <v>-1.3756904602050781</v>
+        <v>-1.0658572912216187</v>
       </c>
       <c r="E28" s="0">
-        <v>-0.93631428480148315</v>
+        <v>-0.9208405613899231</v>
       </c>
       <c r="F28" s="0">
-        <v>-0.14504827558994293</v>
+        <v>0.21115560829639435</v>
       </c>
       <c r="G28" s="0">
-        <v>0.36075037717819214</v>
+        <v>0.6434592604637146</v>
       </c>
       <c r="H28" s="0">
-        <v>0.31512385606765747</v>
+        <v>0.31582188606262207</v>
       </c>
       <c r="I28" s="0">
-        <v>0.34646263718605042</v>
+        <v>0.46071738004684448</v>
       </c>
       <c r="J28" s="0">
-        <v>0.27869570255279541</v>
+        <v>0.57782673835754395</v>
       </c>
       <c r="K28" s="0">
-        <v>0.08806416392326355</v>
+        <v>0.16726034879684448</v>
       </c>
       <c r="L28" s="0">
-        <v>0.2860696017742157</v>
+        <v>0.4396631121635437</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>487</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>386</v>
+        <v>188</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.35865974426269531</v>
+        <v>-0.38920429348945618</v>
       </c>
       <c r="C29" s="0">
-        <v>0.29644098877906799</v>
+        <v>-0.54073774814605713</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.33951610326766968</v>
+        <v>-1.1025440692901611</v>
       </c>
       <c r="E29" s="0">
-        <v>-0.53082293272018433</v>
+        <v>-0.30372193455696106</v>
       </c>
       <c r="F29" s="0">
-        <v>-1.7145199775695801</v>
+        <v>-0.43974718451499939</v>
       </c>
       <c r="G29" s="0">
-        <v>-0.72584021091461182</v>
+        <v>-0.56979250907897949</v>
       </c>
       <c r="H29" s="0">
-        <v>-0.96390604972839355</v>
+        <v>-0.32130828499794006</v>
       </c>
       <c r="I29" s="0">
-        <v>-0.046653687953948975</v>
+        <v>-0.52717447280883789</v>
       </c>
       <c r="J29" s="0">
-        <v>-0.44550302624702454</v>
+        <v>-0.34608489274978638</v>
       </c>
       <c r="K29" s="0">
-        <v>-0.53093826770782471</v>
+        <v>-0.83856809139251709</v>
       </c>
       <c r="L29" s="0">
-        <v>-0.5324559211730957</v>
+        <v>-0.43948173522949219</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>487</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>387</v>
+        <v>189</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.58468180894851685</v>
+        <v>-1.4970734119415283</v>
       </c>
       <c r="C30" s="0">
-        <v>-0.46083980798721313</v>
+        <v>-1.1957001686096191</v>
       </c>
       <c r="D30" s="0">
-        <v>-0.38822796940803528</v>
+        <v>-1.2044310569763184</v>
       </c>
       <c r="E30" s="0">
-        <v>-1.7532029151916504</v>
+        <v>-2.3379888534545898</v>
       </c>
       <c r="F30" s="0">
-        <v>-0.61389017105102539</v>
+        <v>-1.1754884719848633</v>
       </c>
       <c r="G30" s="0">
-        <v>-0.44723880290985107</v>
+        <v>-0.95769411325454712</v>
       </c>
       <c r="H30" s="0">
-        <v>-0.45584654808044434</v>
+        <v>-1.1384987831115723</v>
       </c>
       <c r="I30" s="0">
-        <v>-0.32202321290969849</v>
+        <v>-1.1735212802886963</v>
       </c>
       <c r="J30" s="0">
-        <v>-0.85782504081726074</v>
+        <v>-1.6163363456726074</v>
       </c>
       <c r="K30" s="0">
-        <v>0.068281173706054688</v>
+        <v>-1.0705850124359131</v>
       </c>
       <c r="L30" s="0">
-        <v>-0.51928234100341797</v>
+        <v>-1.0535359382629395</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>487</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>388</v>
+        <v>190</v>
       </c>
       <c r="B31" s="0">
-        <v>1.2907698154449463</v>
+        <v>1.4322501420974731</v>
       </c>
       <c r="C31" s="0">
-        <v>1.4266777038574219</v>
+        <v>2.1327159404754639</v>
       </c>
       <c r="D31" s="0">
-        <v>0.5663798451423645</v>
+        <v>0.73319602012634277</v>
       </c>
       <c r="E31" s="0">
-        <v>0.88748848438262939</v>
+        <v>1.144179105758667</v>
       </c>
       <c r="F31" s="0">
-        <v>1.2435258626937866</v>
+        <v>1.1059253215789795</v>
       </c>
       <c r="G31" s="0">
-        <v>0.74310195446014404</v>
+        <v>0.86487752199172974</v>
       </c>
       <c r="H31" s="0">
-        <v>1.1305625438690186</v>
+        <v>1.2063710689544678</v>
       </c>
       <c r="I31" s="0">
-        <v>1.2166743278503418</v>
+        <v>1.4560717344284058</v>
       </c>
       <c r="J31" s="0">
-        <v>1.0959522724151611</v>
+        <v>1.2870039939880371</v>
       </c>
       <c r="K31" s="0">
-        <v>0.65399825572967529</v>
+        <v>0.79848355054855347</v>
       </c>
       <c r="L31" s="0">
-        <v>1.3702034950256348</v>
+        <v>1.6670098304748535</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>487</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>389</v>
+        <v>191</v>
       </c>
       <c r="B32" s="0">
-        <v>4.3166732788085938</v>
+        <v>1.3508245944976807</v>
       </c>
       <c r="C32" s="0">
-        <v>3.9416623115539551</v>
+        <v>-0.13910990953445435</v>
       </c>
       <c r="D32" s="0">
-        <v>4.2412910461425781</v>
+        <v>0.80295282602310181</v>
       </c>
       <c r="E32" s="0">
-        <v>1.3096189498901367</v>
+        <v>0.43664497137069702</v>
       </c>
       <c r="F32" s="0">
-        <v>2.2230219841003418</v>
+        <v>0.43874862790107727</v>
       </c>
       <c r="G32" s="0">
-        <v>1.1824029684066772</v>
+        <v>0.5559195876121521</v>
       </c>
       <c r="H32" s="0">
-        <v>1.5738557577133179</v>
+        <v>0.48603183031082153</v>
       </c>
       <c r="I32" s="0">
-        <v>4.2401528358459473</v>
+        <v>0.67608481645584106</v>
       </c>
       <c r="J32" s="0">
-        <v>3.1536993980407715</v>
+        <v>0.90770828723907471</v>
       </c>
       <c r="K32" s="0">
-        <v>3.7101378440856934</v>
+        <v>0.68047428131103516</v>
       </c>
       <c r="L32" s="0">
-        <v>3.0751206874847412</v>
+        <v>0.15224732458591461</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>488</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>390</v>
+        <v>192</v>
       </c>
       <c r="B33" s="0">
-        <v>3.1494488716125488</v>
+        <v>-1.0131849050521851</v>
       </c>
       <c r="C33" s="0">
-        <v>0.46317461133003235</v>
+        <v>-1.1737775802612305</v>
       </c>
       <c r="D33" s="0">
-        <v>1.4587278366088867</v>
+        <v>-0.3665669858455658</v>
       </c>
       <c r="E33" s="0">
-        <v>0.18891748785972595</v>
+        <v>-0.49834555387496948</v>
       </c>
       <c r="F33" s="0">
-        <v>2.1859040260314941</v>
+        <v>-0.19913634657859802</v>
       </c>
       <c r="G33" s="0">
-        <v>2.4807708263397217</v>
+        <v>-0.19639277458190918</v>
       </c>
       <c r="H33" s="0">
-        <v>2.3870515823364258</v>
+        <v>0.23546576499938965</v>
       </c>
       <c r="I33" s="0">
-        <v>2.3574795722961426</v>
+        <v>-0.86889630556106567</v>
       </c>
       <c r="J33" s="0">
-        <v>1.8806495666503906</v>
+        <v>-0.49267047643661499</v>
       </c>
       <c r="K33" s="0">
-        <v>2.7694597244262695</v>
+        <v>0.29294100403785706</v>
       </c>
       <c r="L33" s="0">
-        <v>1.508942723274231</v>
+        <v>-0.63485831022262573</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>489</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>391</v>
+        <v>193</v>
       </c>
       <c r="B34" s="0">
-        <v>4.0569396018981934</v>
+        <v>1.1660982370376587</v>
       </c>
       <c r="C34" s="0">
-        <v>5.5843472480773926</v>
+        <v>2.1904304027557373</v>
       </c>
       <c r="D34" s="0">
-        <v>3.8501882553100586</v>
+        <v>-0.088951230049133301</v>
       </c>
       <c r="E34" s="0">
-        <v>7.0419559478759766</v>
+        <v>2.3103876113891602</v>
       </c>
       <c r="F34" s="0">
-        <v>4.1269421577453613</v>
+        <v>1.2584341764450073</v>
       </c>
       <c r="G34" s="0">
-        <v>4.2373824119567871</v>
+        <v>1.1964892148971558</v>
       </c>
       <c r="H34" s="0">
-        <v>5.1354265213012695</v>
+        <v>1.7005133628845215</v>
       </c>
       <c r="I34" s="0">
-        <v>4.4808502197265625</v>
+        <v>1.0696513652801514</v>
       </c>
       <c r="J34" s="0">
-        <v>5.5747442245483398</v>
+        <v>1.9189044237136841</v>
       </c>
       <c r="K34" s="0">
-        <v>4.045412540435791</v>
+        <v>0.5591699481010437</v>
       </c>
       <c r="L34" s="0">
-        <v>4.8305168151855469</v>
+        <v>1.70836341381073</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>490</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>392</v>
+        <v>194</v>
       </c>
       <c r="B35" s="0">
-        <v>4.231480598449707</v>
+        <v>1.3423023223876953</v>
       </c>
       <c r="C35" s="0">
-        <v>3.6933848857879639</v>
+        <v>0.24400833249092102</v>
       </c>
       <c r="D35" s="0">
-        <v>5.6538076400756836</v>
+        <v>1.6163685321807861</v>
       </c>
       <c r="E35" s="0">
-        <v>6.4779057502746582</v>
+        <v>0.79742991924285889</v>
       </c>
       <c r="F35" s="0">
-        <v>5.8586273193359375</v>
+        <v>0.95383352041244507</v>
       </c>
       <c r="G35" s="0">
-        <v>5.3225641250610352</v>
+        <v>1.6823573112487793</v>
       </c>
       <c r="H35" s="0">
-        <v>6.2291569709777832</v>
+        <v>1.4764647483825684</v>
       </c>
       <c r="I35" s="0">
-        <v>4.592686653137207</v>
+        <v>1.1600271463394165</v>
       </c>
       <c r="J35" s="0">
-        <v>5.5542941093444824</v>
+        <v>1.1738258600234985</v>
       </c>
       <c r="K35" s="0">
-        <v>5.488187313079834</v>
+        <v>1.7043724060058594</v>
       </c>
       <c r="L35" s="0">
-        <v>4.7760062217712402</v>
+        <v>0.85578298568725586</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>491</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>393</v>
+        <v>195</v>
       </c>
       <c r="B36" s="0">
-        <v>1.4360121488571167</v>
+        <v>-0.14205312728881836</v>
       </c>
       <c r="C36" s="0">
-        <v>1.0184392929077148</v>
+        <v>0.015471199527382851</v>
       </c>
       <c r="D36" s="0">
-        <v>-2.8206319808959961</v>
+        <v>-0.89762604236602783</v>
       </c>
       <c r="E36" s="0">
-        <v>-2.5430772304534912</v>
+        <v>-0.70250827074050903</v>
       </c>
       <c r="F36" s="0">
-        <v>-1.7138323783874512</v>
+        <v>-1.2945302724838257</v>
       </c>
       <c r="G36" s="0">
-        <v>1.3667848110198975</v>
+        <v>-0.1750478595495224</v>
       </c>
       <c r="H36" s="0">
-        <v>-0.96337467432022095</v>
+        <v>-0.7240288257598877</v>
       </c>
       <c r="I36" s="0">
-        <v>-0.12206005305051804</v>
+        <v>-0.34140267968177795</v>
       </c>
       <c r="J36" s="0">
-        <v>-0.55353242158889771</v>
+        <v>-0.42228078842163086</v>
       </c>
       <c r="K36" s="0">
-        <v>-0.72692346572875977</v>
+        <v>-0.53633701801300049</v>
       </c>
       <c r="L36" s="0">
-        <v>-0.34769663214683533</v>
+        <v>-0.63952958583831787</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>492</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>394</v>
+        <v>196</v>
       </c>
       <c r="B37" s="0">
-        <v>-4.3185510635375977</v>
+        <v>-1.0037559270858765</v>
       </c>
       <c r="C37" s="0">
-        <v>0.039132237434387207</v>
+        <v>0.40815836191177368</v>
       </c>
       <c r="D37" s="0">
-        <v>-0.96328562498092651</v>
+        <v>-0.63609731197357178</v>
       </c>
       <c r="E37" s="0">
-        <v>-11.284667015075684</v>
+        <v>-1.000221848487854</v>
       </c>
       <c r="F37" s="0">
-        <v>-7.3837027549743652</v>
+        <v>-0.0062172412872314453</v>
       </c>
       <c r="G37" s="0">
-        <v>-10.489042282104492</v>
+        <v>-0.32606732845306396</v>
       </c>
       <c r="H37" s="0">
-        <v>-9.7279329299926758</v>
+        <v>-0.38116109371185303</v>
       </c>
       <c r="I37" s="0">
-        <v>-1.7082009315490723</v>
+        <v>-0.17447075247764587</v>
       </c>
       <c r="J37" s="0">
-        <v>-7.8909177780151367</v>
+        <v>-0.89908432960510254</v>
       </c>
       <c r="K37" s="0">
-        <v>-5.7261648178100586</v>
+        <v>-0.19438259303569794</v>
       </c>
       <c r="L37" s="0">
-        <v>-3.6410965919494629</v>
+        <v>0.48172140121459961</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>492</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>395</v>
+        <v>197</v>
       </c>
       <c r="B38" s="0">
-        <v>2.8772652149200439</v>
+        <v>0.45087915658950806</v>
       </c>
       <c r="C38" s="0">
-        <v>2.5321187973022461</v>
+        <v>-0.0084162354469299316</v>
       </c>
       <c r="D38" s="0">
-        <v>2.7639369964599609</v>
+        <v>0.09039713442325592</v>
       </c>
       <c r="E38" s="0">
-        <v>3.5877854824066162</v>
+        <v>0.49201944470405579</v>
       </c>
       <c r="F38" s="0">
-        <v>4.5985841751098633</v>
+        <v>1.2899693250656128</v>
       </c>
       <c r="G38" s="0">
-        <v>2.1753089427947998</v>
+        <v>0.83602893352508545</v>
       </c>
       <c r="H38" s="0">
-        <v>3.4474983215332031</v>
+        <v>1.0774984359741211</v>
       </c>
       <c r="I38" s="0">
-        <v>2.8412086963653564</v>
+        <v>0.56891173124313354</v>
       </c>
       <c r="J38" s="0">
-        <v>3.23854660987854</v>
+        <v>0.47179794311523438</v>
       </c>
       <c r="K38" s="0">
-        <v>2.4671502113342285</v>
+        <v>0.77795195579528809</v>
       </c>
       <c r="L38" s="0">
-        <v>3.7408089637756348</v>
+        <v>0.91552144289016724</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>492</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>396</v>
+        <v>198</v>
       </c>
       <c r="B39" s="0">
-        <v>-2.1380007266998291</v>
+        <v>-0.43830940127372742</v>
       </c>
       <c r="C39" s="0">
-        <v>-3.0527627468109131</v>
+        <v>-1.0033955574035645</v>
       </c>
       <c r="D39" s="0">
-        <v>-2.9113712310791016</v>
+        <v>-0.90823507308959961</v>
       </c>
       <c r="E39" s="0">
-        <v>-2.8896303176879883</v>
+        <v>-0.90458720922470093</v>
       </c>
       <c r="F39" s="0">
-        <v>-3.9666948318481445</v>
+        <v>-0.11188659071922302</v>
       </c>
       <c r="G39" s="0">
-        <v>-2.5968656539916992</v>
+        <v>0.20312683284282684</v>
       </c>
       <c r="H39" s="0">
-        <v>-3.1510639190673828</v>
+        <v>-0.24737250804901123</v>
       </c>
       <c r="I39" s="0">
-        <v>-2.7007119655609131</v>
+        <v>-0.77097642421722412</v>
       </c>
       <c r="J39" s="0">
-        <v>-2.5138158798217773</v>
+        <v>-0.67144811153411865</v>
       </c>
       <c r="K39" s="0">
-        <v>-2.7541184425354004</v>
+        <v>-0.34186252951622009</v>
       </c>
       <c r="L39" s="0">
-        <v>-3.5097284317016602</v>
+        <v>-0.5451006293296814</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>493</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>397</v>
+        <v>199</v>
       </c>
       <c r="B40" s="0">
-        <v>1.2195601463317871</v>
+        <v>-0.24126763641834259</v>
       </c>
       <c r="C40" s="0">
-        <v>0.54633641242980957</v>
+        <v>-0.040281757712364197</v>
       </c>
       <c r="D40" s="0">
-        <v>-2.1428976058959961</v>
+        <v>-1.3831628561019897</v>
       </c>
       <c r="E40" s="0">
-        <v>0.25992351770401001</v>
+        <v>-0.8647570013999939</v>
       </c>
       <c r="F40" s="0">
-        <v>-1.2996845245361328</v>
+        <v>-2.0354981422424316</v>
       </c>
       <c r="G40" s="0">
-        <v>0.2356446385383606</v>
+        <v>-0.34009414911270142</v>
       </c>
       <c r="H40" s="0">
-        <v>-0.27098825573921204</v>
+        <v>-0.93845200538635254</v>
       </c>
       <c r="I40" s="0">
-        <v>-0.13321775197982788</v>
+        <v>-0.33302402496337891</v>
       </c>
       <c r="J40" s="0">
-        <v>0.74377375841140747</v>
+        <v>-0.48945444822311401</v>
       </c>
       <c r="K40" s="0">
-        <v>-0.95362639427185059</v>
+        <v>-0.61632323265075684</v>
       </c>
       <c r="L40" s="0">
-        <v>-0.3923182487487793</v>
+        <v>-1.0547986030578613</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>494</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>398</v>
+        <v>200</v>
       </c>
       <c r="B41" s="0">
-        <v>1.3818575143814087</v>
+        <v>0.005941540002822876</v>
       </c>
       <c r="C41" s="0">
-        <v>0.91885894536972046</v>
+        <v>0.2846599817276001</v>
       </c>
       <c r="D41" s="0">
-        <v>1.2054215669631958</v>
+        <v>0.043888747692108154</v>
       </c>
       <c r="E41" s="0">
-        <v>0.7522052526473999</v>
+        <v>-0.13825470209121704</v>
       </c>
       <c r="F41" s="0">
-        <v>0.20049548149108887</v>
+        <v>0.28877055644989014</v>
       </c>
       <c r="G41" s="0">
-        <v>0.49352633953094482</v>
+        <v>0.20715236663818359</v>
       </c>
       <c r="H41" s="0">
-        <v>0.60229766368865967</v>
+        <v>0.14116881787776947</v>
       </c>
       <c r="I41" s="0">
-        <v>1.1705598831176758</v>
+        <v>0.12967407703399658</v>
       </c>
       <c r="J41" s="0">
-        <v>1.0643405914306641</v>
+        <v>-0.035397849977016449</v>
       </c>
       <c r="K41" s="0">
-        <v>0.84947395324707031</v>
+        <v>0.15459898114204407</v>
       </c>
       <c r="L41" s="0">
-        <v>0.73670589923858643</v>
+        <v>0.28676798939704895</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>494</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>399</v>
+        <v>201</v>
       </c>
       <c r="B42" s="0">
-        <v>1.552568793296814</v>
+        <v>-0.1095518171787262</v>
       </c>
       <c r="C42" s="0">
-        <v>-1.9403153657913208</v>
+        <v>-1.1643277406692505</v>
       </c>
       <c r="D42" s="0">
-        <v>0.78340029716491699</v>
+        <v>-0.2692948579788208</v>
       </c>
       <c r="E42" s="0">
-        <v>-0.76114678382873535</v>
+        <v>-1.3824788331985474</v>
       </c>
       <c r="F42" s="0">
-        <v>-1.1758757829666138</v>
+        <v>-0.62846195697784424</v>
       </c>
       <c r="G42" s="0">
-        <v>-1.7932981252670288</v>
+        <v>-0.92081701755523682</v>
       </c>
       <c r="H42" s="0">
-        <v>-1.2413418292999268</v>
+        <v>-0.78270965814590454</v>
       </c>
       <c r="I42" s="0">
-        <v>0.14429283142089844</v>
+        <v>-0.25985056161880493</v>
       </c>
       <c r="J42" s="0">
-        <v>0.43855762481689453</v>
+        <v>-0.65208840370178223</v>
       </c>
       <c r="K42" s="0">
-        <v>-0.45723241567611694</v>
+        <v>-0.41348862648010254</v>
       </c>
       <c r="L42" s="0">
-        <v>-1.5512702465057373</v>
+        <v>-0.89161038398742676</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>494</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>400</v>
+        <v>202</v>
       </c>
       <c r="B43" s="0">
-        <v>-4.6426591873168945</v>
+        <v>-0.57107347249984741</v>
       </c>
       <c r="C43" s="0">
-        <v>-1.8048982620239258</v>
+        <v>1.4973256587982178</v>
       </c>
       <c r="D43" s="0">
-        <v>-2.7145309448242188</v>
+        <v>0.19446519017219543</v>
       </c>
       <c r="E43" s="0">
-        <v>-0.19212985038757324</v>
+        <v>0.76251178979873657</v>
       </c>
       <c r="F43" s="0">
-        <v>-2.7552714347839355</v>
+        <v>0.2998175323009491</v>
       </c>
       <c r="G43" s="0">
-        <v>-2.4677562713623047</v>
+        <v>0.5297054648399353</v>
       </c>
       <c r="H43" s="0">
-        <v>-1.7444126605987549</v>
+        <v>0.72951257228851318</v>
       </c>
       <c r="I43" s="0">
-        <v>-3.0540294647216797</v>
+        <v>0.49568009376525879</v>
       </c>
       <c r="J43" s="0">
-        <v>-1.6565403938293457</v>
+        <v>0.18426840007305145</v>
       </c>
       <c r="K43" s="0">
-        <v>-1.9217742681503296</v>
+        <v>0.36208516359329224</v>
       </c>
       <c r="L43" s="0">
-        <v>-1.3028359413146973</v>
+        <v>1.0014398097991943</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>494</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>401</v>
+        <v>203</v>
       </c>
       <c r="B44" s="0">
-        <v>3.5398104190826416</v>
+        <v>0.48516246676445007</v>
       </c>
       <c r="C44" s="0">
-        <v>2.0114955902099609</v>
+        <v>0.33058121800422668</v>
       </c>
       <c r="D44" s="0">
-        <v>0.54408860206604004</v>
+        <v>-1.0272070169448853</v>
       </c>
       <c r="E44" s="0">
-        <v>-0.10993450880050659</v>
+        <v>-0.54113107919692993</v>
       </c>
       <c r="F44" s="0">
-        <v>0.14297637343406677</v>
+        <v>0.25780287384986877</v>
       </c>
       <c r="G44" s="0">
-        <v>1.5388435125350952</v>
+        <v>-1.2966092824935913</v>
       </c>
       <c r="H44" s="0">
-        <v>0.51788461208343506</v>
+        <v>-0.40658345818519592</v>
       </c>
       <c r="I44" s="0">
-        <v>2.4173605442047119</v>
+        <v>0.31226614117622375</v>
       </c>
       <c r="J44" s="0">
-        <v>1.714937686920166</v>
+        <v>0.15770554542541504</v>
       </c>
       <c r="K44" s="0">
-        <v>1.041466236114502</v>
+        <v>-0.77750062942504883</v>
       </c>
       <c r="L44" s="0">
-        <v>1.6246991157531738</v>
+        <v>0.29353034496307373</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>494</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>402</v>
+        <v>204</v>
       </c>
       <c r="B45" s="0">
-        <v>5.4878273010253906</v>
+        <v>0.52376198768615723</v>
       </c>
       <c r="C45" s="0">
-        <v>4.5743732452392578</v>
+        <v>0.37098222970962524</v>
       </c>
       <c r="D45" s="0">
-        <v>4.7179327011108398</v>
+        <v>0.35796052217483521</v>
       </c>
       <c r="E45" s="0">
-        <v>-1.5642075538635254</v>
+        <v>-0.17776934802532196</v>
       </c>
       <c r="F45" s="0">
-        <v>0.60232537984848022</v>
+        <v>-0.239185631275177</v>
       </c>
       <c r="G45" s="0">
-        <v>-1.6953182220458984</v>
+        <v>0.63087749481201172</v>
       </c>
       <c r="H45" s="0">
-        <v>-0.89028173685073853</v>
+        <v>0.089352577924728394</v>
       </c>
       <c r="I45" s="0">
-        <v>4.9447708129882813</v>
+        <v>0.47552138566970825</v>
       </c>
       <c r="J45" s="0">
-        <v>2.0729408264160156</v>
+        <v>0.16694869101047516</v>
       </c>
       <c r="K45" s="0">
-        <v>2.0387547016143799</v>
+        <v>0.5825543999671936</v>
       </c>
       <c r="L45" s="0">
-        <v>3.1591591835021973</v>
+        <v>0.090751543641090393</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>494</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>403</v>
+        <v>205</v>
       </c>
       <c r="B46" s="0">
-        <v>3.3571107387542725</v>
+        <v>1.4474804401397705</v>
       </c>
       <c r="C46" s="0">
-        <v>3.2813606262207031</v>
+        <v>2.1411457061767578</v>
       </c>
       <c r="D46" s="0">
-        <v>6.1529788970947266</v>
+        <v>2.2712531089782715</v>
       </c>
       <c r="E46" s="0">
-        <v>4.0759625434875488</v>
+        <v>0.70987224578857422</v>
       </c>
       <c r="F46" s="0">
-        <v>5.1509408950805664</v>
+        <v>1.9963910579681396</v>
       </c>
       <c r="G46" s="0">
-        <v>3.9997820854187012</v>
+        <v>1.3384585380554199</v>
       </c>
       <c r="H46" s="0">
-        <v>4.7600259780883789</v>
+        <v>1.3657681941986084</v>
       </c>
       <c r="I46" s="0">
-        <v>4.2750453948974609</v>
+        <v>2.0716617107391357</v>
       </c>
       <c r="J46" s="0">
-        <v>4.2388143539428711</v>
+        <v>1.1252056360244751</v>
       </c>
       <c r="K46" s="0">
-        <v>5.076380729675293</v>
+        <v>1.957646369934082</v>
       </c>
       <c r="L46" s="0">
-        <v>4.2322683334350586</v>
+        <v>2.0712480545043945</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>494</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>404</v>
+        <v>206</v>
       </c>
       <c r="B47" s="0">
-        <v>-1.4216006994247437</v>
+        <v>-2.454355001449585</v>
       </c>
       <c r="C47" s="0">
-        <v>2.8548846244812012</v>
+        <v>0.050068307667970657</v>
       </c>
       <c r="D47" s="0">
-        <v>1.2009459733963013</v>
+        <v>-1.103650689125061</v>
       </c>
       <c r="E47" s="0">
-        <v>5.0202007293701172</v>
+        <v>-0.27452385425567627</v>
       </c>
       <c r="F47" s="0">
-        <v>1.5682463645935059</v>
+        <v>-0.41870245337486267</v>
       </c>
       <c r="G47" s="0">
-        <v>1.7854137420654297</v>
+        <v>-0.37897038459777832</v>
       </c>
       <c r="H47" s="0">
-        <v>2.8576455116271973</v>
+        <v>0.17811767756938934</v>
       </c>
       <c r="I47" s="0">
-        <v>1.0095870494842529</v>
+        <v>-1.1696851253509521</v>
       </c>
       <c r="J47" s="0">
-        <v>1.7992998361587524</v>
+        <v>-1.2577540874481201</v>
       </c>
       <c r="K47" s="0">
-        <v>1.5709121227264404</v>
+        <v>-0.57234019041061401</v>
       </c>
       <c r="L47" s="0">
-        <v>2.5964837074279785</v>
+        <v>-0.12783063948154449</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>494</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>405</v>
+        <v>207</v>
       </c>
       <c r="B48" s="0">
-        <v>-1.7933380603790283</v>
+        <v>-0.47301006317138672</v>
       </c>
       <c r="C48" s="0">
-        <v>0.73251235485076904</v>
+        <v>-0.70979833602905273</v>
       </c>
       <c r="D48" s="0">
-        <v>-1.5141193866729736</v>
+        <v>-0.29838413000106812</v>
       </c>
       <c r="E48" s="0">
-        <v>-2.065582275390625</v>
+        <v>-0.085103541612625122</v>
       </c>
       <c r="F48" s="0">
-        <v>0.27852731943130493</v>
+        <v>-0.2405884861946106</v>
       </c>
       <c r="G48" s="0">
-        <v>-2.7360312938690186</v>
+        <v>-0.26791089773178101</v>
       </c>
       <c r="H48" s="0">
-        <v>-1.5319406986236572</v>
+        <v>-0.049730561673641205</v>
       </c>
       <c r="I48" s="0">
-        <v>-0.8530915379524231</v>
+        <v>-0.42868834733963013</v>
       </c>
       <c r="J48" s="0">
-        <v>-1.9282968044281006</v>
+        <v>-0.15665611624717712</v>
       </c>
       <c r="K48" s="0">
-        <v>-2.1250753402709961</v>
+        <v>-0.11597691476345062</v>
       </c>
       <c r="L48" s="0">
-        <v>0.51134014129638672</v>
+        <v>-0.33470916748046875</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>495</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>406</v>
+        <v>208</v>
       </c>
       <c r="B49" s="0">
-        <v>0.46848428249359131</v>
+        <v>-0.82933139801025391</v>
       </c>
       <c r="C49" s="0">
-        <v>1.8808233737945557</v>
+        <v>-0.096788577735424042</v>
       </c>
       <c r="D49" s="0">
-        <v>1.1410871744155884</v>
+        <v>-0.17410022020339966</v>
       </c>
       <c r="E49" s="0">
-        <v>0.85895633697509766</v>
+        <v>-0.025511085987091064</v>
       </c>
       <c r="F49" s="0">
-        <v>1.0704271793365479</v>
+        <v>-0.7218097448348999</v>
       </c>
       <c r="G49" s="0">
-        <v>1.2551523447036743</v>
+        <v>-1.2179750204086304</v>
       </c>
       <c r="H49" s="0">
-        <v>1.263703465461731</v>
+        <v>0.017565488815307617</v>
       </c>
       <c r="I49" s="0">
-        <v>1.6212798357009888</v>
+        <v>-0.021289721131324768</v>
       </c>
       <c r="J49" s="0">
-        <v>0.93181878328323364</v>
+        <v>-0.2018534243106842</v>
       </c>
       <c r="K49" s="0">
-        <v>1.1999396085739136</v>
+        <v>-0.70153164863586426</v>
       </c>
       <c r="L49" s="0">
-        <v>1.4756251573562622</v>
+        <v>-0.40929919481277466</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>495</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>407</v>
+        <v>209</v>
       </c>
       <c r="B50" s="0">
-        <v>-1.365181565284729</v>
+        <v>-2.1409547328948975</v>
       </c>
       <c r="C50" s="0">
-        <v>-2.3156912326812744</v>
+        <v>-1.0295792818069458</v>
       </c>
       <c r="D50" s="0">
-        <v>1.6961128711700439</v>
+        <v>-0.36673671007156372</v>
       </c>
       <c r="E50" s="0">
-        <v>-1.8666422367095947</v>
+        <v>-1.8565834760665894</v>
       </c>
       <c r="F50" s="0">
-        <v>0.1188051700592041</v>
+        <v>-0.312692791223526</v>
       </c>
       <c r="G50" s="0">
-        <v>-0.74288660287857056</v>
+        <v>-1.8613942861557007</v>
       </c>
       <c r="H50" s="0">
-        <v>-0.42222994565963745</v>
+        <v>-1.1073931455612183</v>
       </c>
       <c r="I50" s="0">
-        <v>-0.30658906698226929</v>
+        <v>-0.93597018718719482</v>
       </c>
       <c r="J50" s="0">
-        <v>-1.010179877281189</v>
+        <v>-1.8943984508514404</v>
       </c>
       <c r="K50" s="0">
-        <v>1.1030107736587524</v>
+        <v>-1.0125832557678223</v>
       </c>
       <c r="L50" s="0">
-        <v>-1.0289400815963745</v>
+        <v>-0.33379325270652771</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>495</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>408</v>
+        <v>210</v>
       </c>
       <c r="B51" s="0">
-        <v>1.748593807220459</v>
+        <v>-0.16372403502464294</v>
       </c>
       <c r="C51" s="0">
-        <v>2.1768321990966797</v>
+        <v>0.16928309202194214</v>
       </c>
       <c r="D51" s="0">
-        <v>0.33871322870254517</v>
+        <v>-0.77330124378204346</v>
       </c>
       <c r="E51" s="0">
-        <v>0.091813132166862488</v>
+        <v>-1.0938771963119507</v>
       </c>
       <c r="F51" s="0">
-        <v>0.46580091118812561</v>
+        <v>-0.89779138565063477</v>
       </c>
       <c r="G51" s="0">
-        <v>0.80276292562484741</v>
+        <v>-0.84852135181427002</v>
       </c>
       <c r="H51" s="0">
-        <v>0.72207456827163696</v>
+        <v>-0.77358996868133545</v>
       </c>
       <c r="I51" s="0">
-        <v>1.4675763845443726</v>
+        <v>-0.092987105250358582</v>
       </c>
       <c r="J51" s="0">
-        <v>1.0445320606231689</v>
+        <v>-0.46966856718063354</v>
       </c>
       <c r="K51" s="0">
-        <v>0.75510209798812866</v>
+        <v>-0.45478925108909607</v>
       </c>
       <c r="L51" s="0">
-        <v>1.5458443164825439</v>
+        <v>-0.091282151639461517</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>496</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>409</v>
+        <v>211</v>
       </c>
       <c r="B52" s="0">
-        <v>2.1912930011749268</v>
+        <v>-0.20040750503540039</v>
       </c>
       <c r="C52" s="0">
-        <v>0.89515388011932373</v>
+        <v>-0.56569641828536987</v>
       </c>
       <c r="D52" s="0">
-        <v>0.66547536849975586</v>
+        <v>0.14067839086055756</v>
       </c>
       <c r="E52" s="0">
-        <v>0.79132908582687378</v>
+        <v>0.061783239245414734</v>
       </c>
       <c r="F52" s="0">
-        <v>1.2568378448486328</v>
+        <v>0.11358419060707092</v>
       </c>
       <c r="G52" s="0">
-        <v>-1.518485426902771</v>
+        <v>-0.33693239092826843</v>
       </c>
       <c r="H52" s="0">
-        <v>0.91440844535827637</v>
+        <v>0.10026232898235321</v>
       </c>
       <c r="I52" s="0">
-        <v>1.7832871675491333</v>
+        <v>-0.10254491865634918</v>
       </c>
       <c r="J52" s="0">
-        <v>1.6379539966583252</v>
+        <v>0.063495174050331116</v>
       </c>
       <c r="K52" s="0">
-        <v>-0.44834429025650024</v>
+        <v>0.089330755174160004</v>
       </c>
       <c r="L52" s="0">
-        <v>1.4079554080963135</v>
+        <v>-0.15194109082221985</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>496</v>
+        <v>298</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>410</v>
+        <v>212</v>
       </c>
       <c r="B53" s="0">
-        <v>2.3914284706115723</v>
+        <v>-0.18996205925941467</v>
       </c>
       <c r="C53" s="0">
-        <v>2.037926197052002</v>
+        <v>-0.28215527534484863</v>
       </c>
       <c r="D53" s="0">
-        <v>0.34116983413696289</v>
+        <v>-0.68818449974060059</v>
       </c>
       <c r="E53" s="0">
-        <v>1.4786298274993896</v>
+        <v>-0.81135457754135132</v>
       </c>
       <c r="F53" s="0">
-        <v>2.5562496185302734</v>
+        <v>-0.36499661207199097</v>
       </c>
       <c r="G53" s="0">
-        <v>2.962660551071167</v>
+        <v>-0.35908657312393188</v>
       </c>
       <c r="H53" s="0">
-        <v>2.3424844741821289</v>
+        <v>-0.50331056118011475</v>
       </c>
       <c r="I53" s="0">
-        <v>2.3702981472015381</v>
+        <v>-0.35334077477455139</v>
       </c>
       <c r="J53" s="0">
-        <v>1.9311941862106323</v>
+        <v>-0.49201416969299316</v>
       </c>
       <c r="K53" s="0">
-        <v>2.2833783626556396</v>
+        <v>-0.52225279808044434</v>
       </c>
       <c r="L53" s="0">
-        <v>2.2970881462097168</v>
+        <v>-0.31845861673355103</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>496</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>411</v>
+        <v>213</v>
       </c>
       <c r="B54" s="0">
-        <v>1.6836755275726318</v>
+        <v>0.066310100257396698</v>
       </c>
       <c r="C54" s="0">
-        <v>5.7494692802429199</v>
+        <v>0.9397396445274353</v>
       </c>
       <c r="D54" s="0">
-        <v>3.7516312599182129</v>
+        <v>1.1867913007736206</v>
       </c>
       <c r="E54" s="0">
-        <v>3.254704475402832</v>
+        <v>1.68896484375</v>
       </c>
       <c r="F54" s="0">
-        <v>1.8003629446029663</v>
+        <v>0.38348409533500671</v>
       </c>
       <c r="G54" s="0">
-        <v>2.9612655639648438</v>
+        <v>0.90961986780166626</v>
       </c>
       <c r="H54" s="0">
-        <v>2.7325043678283691</v>
+        <v>0.9919402003288269</v>
       </c>
       <c r="I54" s="0">
-        <v>3.9590809345245361</v>
+        <v>0.73236691951751709</v>
       </c>
       <c r="J54" s="0">
-        <v>2.5105390548706055</v>
+        <v>0.87851262092590332</v>
       </c>
       <c r="K54" s="0">
-        <v>3.4070537090301514</v>
+        <v>1.0482054948806763</v>
       </c>
       <c r="L54" s="0">
-        <v>4.1043281555175781</v>
+        <v>0.65681648254394531</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>496</v>
+        <v>298</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>412</v>
+        <v>214</v>
       </c>
       <c r="B55" s="0">
-        <v>2.8703329563140869</v>
+        <v>10.018734931945801</v>
       </c>
       <c r="C55" s="0">
-        <v>1.3773398399353027</v>
+        <v>0.12316834926605225</v>
       </c>
       <c r="D55" s="0">
-        <v>3.1226329803466797</v>
+        <v>-12.463300704956055</v>
       </c>
       <c r="E55" s="0">
-        <v>2.9204936027526855</v>
+        <v>2.0529828071594238</v>
       </c>
       <c r="F55" s="0">
-        <v>3.0954861640930176</v>
+        <v>-4.4706783294677734</v>
       </c>
       <c r="G55" s="0">
-        <v>1.7852669954299927</v>
+        <v>-9.1556015014648438</v>
       </c>
       <c r="H55" s="0">
-        <v>2.6890878677368164</v>
+        <v>-1.2370243072509766</v>
       </c>
       <c r="I55" s="0">
-        <v>2.5509293079376221</v>
+        <v>5.4006452560424805</v>
       </c>
       <c r="J55" s="0">
-        <v>2.956507682800293</v>
+        <v>6.1033649444580078</v>
       </c>
       <c r="K55" s="0">
-        <v>2.4482340812683105</v>
+        <v>-9.0417461395263672</v>
       </c>
       <c r="L55" s="0">
-        <v>2.3360135555267334</v>
+        <v>-1.8629446029663086</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>497</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>413</v>
+        <v>215</v>
       </c>
       <c r="B56" s="0">
-        <v>1.9186545610427856</v>
+        <v>0.64139294624328613</v>
       </c>
       <c r="C56" s="0">
-        <v>2.6447548866271973</v>
+        <v>-0.25788342952728271</v>
       </c>
       <c r="D56" s="0">
-        <v>2.2762606143951416</v>
+        <v>-0.12390755116939545</v>
       </c>
       <c r="E56" s="0">
-        <v>1.9582135677337646</v>
+        <v>-0.025875784456729889</v>
       </c>
       <c r="F56" s="0">
-        <v>2.224726676940918</v>
+        <v>0.02281641960144043</v>
       </c>
       <c r="G56" s="0">
-        <v>0.065635174512863159</v>
+        <v>0.96841627359390259</v>
       </c>
       <c r="H56" s="0">
-        <v>1.403340220451355</v>
+        <v>0.47353279590606689</v>
       </c>
       <c r="I56" s="0">
-        <v>2.284090518951416</v>
+        <v>0.10240742564201355</v>
       </c>
       <c r="J56" s="0">
-        <v>2.74273681640625</v>
+        <v>0.41378170251846313</v>
       </c>
       <c r="K56" s="0">
-        <v>2.7358236312866211</v>
+        <v>0.45275843143463135</v>
       </c>
       <c r="L56" s="0">
-        <v>3.2086224555969238</v>
+        <v>0.28758937120437622</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>498</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>414</v>
+        <v>216</v>
       </c>
       <c r="B57" s="0">
-        <v>-0.81912529468536377</v>
+        <v>-0.65841865539550781</v>
       </c>
       <c r="C57" s="0">
-        <v>-1.1419724225997925</v>
+        <v>-0.7784191370010376</v>
       </c>
       <c r="D57" s="0">
-        <v>-3.3552737236022949</v>
+        <v>-0.82470560073852539</v>
       </c>
       <c r="E57" s="0">
-        <v>-2.9545619487762451</v>
+        <v>-1.0615451335906982</v>
       </c>
       <c r="F57" s="0">
-        <v>-0.9175640344619751</v>
+        <v>0.29206585884094238</v>
       </c>
       <c r="G57" s="0">
-        <v>-0.15992069244384766</v>
+        <v>0.11424665898084641</v>
       </c>
       <c r="H57" s="0">
-        <v>-1.0858811140060425</v>
+        <v>-0.1246696412563324</v>
       </c>
       <c r="I57" s="0">
-        <v>-1.0910210609436035</v>
+        <v>-0.70161652565002441</v>
       </c>
       <c r="J57" s="0">
-        <v>-1.2665033340454102</v>
+        <v>-0.81666421890258789</v>
       </c>
       <c r="K57" s="0">
-        <v>-1.4058401584625244</v>
+        <v>-0.10393887758255005</v>
       </c>
       <c r="L57" s="0">
-        <v>-0.41666561365127563</v>
+        <v>-0.022655174136161804</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>498</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>415</v>
+        <v>217</v>
       </c>
       <c r="B58" s="0">
-        <v>0.38798904418945313</v>
+        <v>-0.029750481247901917</v>
       </c>
       <c r="C58" s="0">
-        <v>-0.58334916830062866</v>
+        <v>-0.1148812398314476</v>
       </c>
       <c r="D58" s="0">
-        <v>-0.54173266887664795</v>
+        <v>-0.54571092128753662</v>
       </c>
       <c r="E58" s="0">
-        <v>-2.0427432060241699</v>
+        <v>-0.64346671104431152</v>
       </c>
       <c r="F58" s="0">
-        <v>-2.4671194553375244</v>
+        <v>-0.30168154835700989</v>
       </c>
       <c r="G58" s="0">
-        <v>-1.1428604125976563</v>
+        <v>0.013244359754025936</v>
       </c>
       <c r="H58" s="0">
-        <v>-1.8809846639633179</v>
+        <v>-0.25205600261688232</v>
       </c>
       <c r="I58" s="0">
-        <v>-0.24569763243198395</v>
+        <v>-0.18894898891448975</v>
       </c>
       <c r="J58" s="0">
-        <v>-0.82737720012664795</v>
+        <v>-0.33660852909088135</v>
       </c>
       <c r="K58" s="0">
-        <v>-0.84229636192321777</v>
+        <v>-0.26623326539993286</v>
       </c>
       <c r="L58" s="0">
-        <v>-1.5173195600509644</v>
+        <v>-0.16168226301670074</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>499</v>
+        <v>301</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>416</v>
+        <v>218</v>
       </c>
       <c r="B59" s="0">
-        <v>-0.43242022395133972</v>
+        <v>-1.3684179782867432</v>
       </c>
       <c r="C59" s="0">
-        <v>-0.049055356532335281</v>
+        <v>-0.97497856616973877</v>
       </c>
       <c r="D59" s="0">
-        <v>-0.93565827608108521</v>
+        <v>-0.69724100828170776</v>
       </c>
       <c r="E59" s="0">
-        <v>0.13597282767295837</v>
+        <v>-0.75646406412124634</v>
       </c>
       <c r="F59" s="0">
-        <v>0.095312640070915222</v>
+        <v>-0.33387067914009094</v>
       </c>
       <c r="G59" s="0">
-        <v>-2.2705392837524414</v>
+        <v>-1.7670289278030396</v>
       </c>
       <c r="H59" s="0">
-        <v>0.11115995049476624</v>
+        <v>-0.63216608762741089</v>
       </c>
       <c r="I59" s="0">
-        <v>-0.34878045320510864</v>
+        <v>-0.90166401863098145</v>
       </c>
       <c r="J59" s="0">
-        <v>0.1266884058713913</v>
+        <v>-1.0221505165100098</v>
       </c>
       <c r="K59" s="0">
-        <v>-1.6123015880584717</v>
+        <v>-1.2413573265075684</v>
       </c>
       <c r="L59" s="0">
-        <v>0.02373528853058815</v>
+        <v>-0.50568115711212158</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>499</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>417</v>
+        <v>219</v>
       </c>
       <c r="B60" s="0">
-        <v>-2.8421335220336914</v>
+        <v>-1.4283403158187866</v>
       </c>
       <c r="C60" s="0">
-        <v>-1.0746918916702271</v>
+        <v>-0.95083284378051758</v>
       </c>
       <c r="D60" s="0">
-        <v>-1.0121787786483765</v>
+        <v>-0.85556507110595703</v>
       </c>
       <c r="E60" s="0">
-        <v>-2.3409051895141602</v>
+        <v>-1.3279819488525391</v>
       </c>
       <c r="F60" s="0">
-        <v>-0.20797380805015564</v>
+        <v>-1.4842333793640137</v>
       </c>
       <c r="G60" s="0">
-        <v>-0.76674306392669678</v>
+        <v>-1.2314869165420532</v>
       </c>
       <c r="H60" s="0">
-        <v>-1.1001666784286499</v>
+        <v>-1.3213932514190674</v>
       </c>
       <c r="I60" s="0">
-        <v>-1.649738073348999</v>
+        <v>-0.98608553409576416</v>
       </c>
       <c r="J60" s="0">
-        <v>-2.593625545501709</v>
+        <v>-0.98138642311096191</v>
       </c>
       <c r="K60" s="0">
-        <v>-0.88946080207824707</v>
+        <v>-0.99116694927215576</v>
       </c>
       <c r="L60" s="0">
-        <v>-0.63769114017486572</v>
+        <v>-1.1864926815032959</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>499</v>
+        <v>301</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>418</v>
+        <v>220</v>
       </c>
       <c r="B61" s="0">
-        <v>-1.6177651882171631</v>
+        <v>-0.44814938306808472</v>
       </c>
       <c r="C61" s="0">
-        <v>-0.8827739953994751</v>
+        <v>-0.74667704105377197</v>
       </c>
       <c r="D61" s="0">
-        <v>-1.0826489925384521</v>
+        <v>-0.49285924434661865</v>
       </c>
       <c r="E61" s="0">
-        <v>0.49210348725318909</v>
+        <v>-0.088971883058547974</v>
       </c>
       <c r="F61" s="0">
-        <v>0.40758901834487915</v>
+        <v>-0.46606063842773438</v>
       </c>
       <c r="G61" s="0">
-        <v>-1.3413124084472656</v>
+        <v>-1.0756371021270752</v>
       </c>
       <c r="H61" s="0">
-        <v>0.054408669471740723</v>
+        <v>-0.33449774980545044</v>
       </c>
       <c r="I61" s="0">
-        <v>-1.177544116973877</v>
+        <v>-0.56589764356613159</v>
       </c>
       <c r="J61" s="0">
-        <v>-0.48468771576881409</v>
+        <v>-0.25525781512260437</v>
       </c>
       <c r="K61" s="0">
-        <v>-1.2097117900848389</v>
+        <v>-0.779136061668396</v>
       </c>
       <c r="L61" s="0">
-        <v>0.056946352124214172</v>
+        <v>-0.29813900589942932</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>500</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>419</v>
+        <v>221</v>
       </c>
       <c r="B62" s="0">
-        <v>0.027535557746887207</v>
+        <v>0.23435665667057037</v>
       </c>
       <c r="C62" s="0">
-        <v>0.14378584921360016</v>
+        <v>0.3856377899646759</v>
       </c>
       <c r="D62" s="0">
-        <v>0.21500720083713531</v>
+        <v>0.048611436039209366</v>
       </c>
       <c r="E62" s="0">
-        <v>-0.5488702654838562</v>
+        <v>-0.73869055509567261</v>
       </c>
       <c r="F62" s="0">
-        <v>-0.034516662359237671</v>
+        <v>0.83241719007492065</v>
       </c>
       <c r="G62" s="0">
-        <v>-0.31674262881278992</v>
+        <v>-0.38193792104721069</v>
       </c>
       <c r="H62" s="0">
-        <v>-0.23353321850299835</v>
+        <v>0.048980444669723511</v>
       </c>
       <c r="I62" s="0">
-        <v>0.41592222452163696</v>
+        <v>0.57586848735809326</v>
       </c>
       <c r="J62" s="0">
-        <v>-0.25824558734893799</v>
+        <v>-0.20168121159076691</v>
       </c>
       <c r="K62" s="0">
-        <v>0.15445592999458313</v>
+        <v>0.015593081712722778</v>
       </c>
       <c r="L62" s="0">
-        <v>0.6556086540222168</v>
+        <v>1.0207755565643311</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>500</v>
+        <v>302</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>420</v>
+        <v>222</v>
       </c>
       <c r="B63" s="0">
-        <v>5.8840584754943848</v>
+        <v>0.75839263200759888</v>
       </c>
       <c r="C63" s="0">
-        <v>3.8878297805786133</v>
+        <v>0.68303966522216797</v>
       </c>
       <c r="D63" s="0">
-        <v>5.894221305847168</v>
+        <v>0.44498938322067261</v>
       </c>
       <c r="E63" s="0">
-        <v>3.6111068725585938</v>
+        <v>-0.91034263372421265</v>
       </c>
       <c r="F63" s="0">
-        <v>1.1278679370880127</v>
+        <v>-1.0360994338989258</v>
       </c>
       <c r="G63" s="0">
-        <v>2.4281954765319824</v>
+        <v>0.61581981182098389</v>
       </c>
       <c r="H63" s="0">
-        <v>3.228069543838501</v>
+        <v>-0.30384564399719238</v>
       </c>
       <c r="I63" s="0">
-        <v>5.3764858245849609</v>
+        <v>0.65986430644989014</v>
       </c>
       <c r="J63" s="0">
-        <v>4.7475829124450684</v>
+        <v>-0.029003310948610306</v>
       </c>
       <c r="K63" s="0">
-        <v>4.1905813217163086</v>
+        <v>0.70760023593902588</v>
       </c>
       <c r="L63" s="0">
-        <v>2.5078489780426025</v>
+        <v>-0.13825350999832153</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>501</v>
+        <v>303</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>421</v>
+        <v>223</v>
       </c>
       <c r="B64" s="0">
-        <v>2.8756918907165527</v>
+        <v>1.1653910875320435</v>
       </c>
       <c r="C64" s="0">
-        <v>2.0030617713928223</v>
+        <v>1.4680390357971191</v>
       </c>
       <c r="D64" s="0">
-        <v>2.9813511371612549</v>
+        <v>0.9748387336730957</v>
       </c>
       <c r="E64" s="0">
-        <v>3.1321539878845215</v>
+        <v>1.0050029754638672</v>
       </c>
       <c r="F64" s="0">
-        <v>3.126258373260498</v>
+        <v>1.0898606777191162</v>
       </c>
       <c r="G64" s="0">
-        <v>2.9166374206542969</v>
+        <v>0.42226782441139221</v>
       </c>
       <c r="H64" s="0">
-        <v>3.1397533416748047</v>
+        <v>0.90087789297103882</v>
       </c>
       <c r="I64" s="0">
-        <v>2.6799068450927734</v>
+        <v>1.20405113697052</v>
       </c>
       <c r="J64" s="0">
-        <v>3.0455403327941895</v>
+        <v>1.2664060592651367</v>
       </c>
       <c r="K64" s="0">
-        <v>3.0271639823913574</v>
+        <v>0.93817591667175293</v>
       </c>
       <c r="L64" s="0">
-        <v>2.65702223777771</v>
+        <v>1.3257601261138916</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>501</v>
+        <v>303</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>422</v>
+        <v>224</v>
       </c>
       <c r="B65" s="0">
-        <v>0.5417402982711792</v>
+        <v>-0.86353206634521484</v>
       </c>
       <c r="C65" s="0">
-        <v>0.054728861898183823</v>
+        <v>-1.1463873386383057</v>
       </c>
       <c r="D65" s="0">
-        <v>2.5687847137451172</v>
+        <v>-0.42270275950431824</v>
       </c>
       <c r="E65" s="0">
-        <v>-1.0449243783950806</v>
+        <v>-0.27861765027046204</v>
       </c>
       <c r="F65" s="0">
-        <v>1.4290850162506104</v>
+        <v>-0.3446347713470459</v>
       </c>
       <c r="G65" s="0">
-        <v>1.030001163482666</v>
+        <v>-0.47163486480712891</v>
       </c>
       <c r="H65" s="0">
-        <v>0.49097335338592529</v>
+        <v>-0.34612810611724854</v>
       </c>
       <c r="I65" s="0">
-        <v>1.2134261131286621</v>
+        <v>-0.40308743715286255</v>
       </c>
       <c r="J65" s="0">
-        <v>-0.1076216995716095</v>
+        <v>-0.54279768466949463</v>
       </c>
       <c r="K65" s="0">
-        <v>1.8446722030639648</v>
+        <v>-0.085936471819877625</v>
       </c>
       <c r="L65" s="0">
-        <v>0.91879451274871826</v>
+        <v>-0.3502947986125946</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>502</v>
+        <v>304</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>423</v>
+        <v>225</v>
       </c>
       <c r="B66" s="0">
-        <v>0.54933083057403564</v>
+        <v>0.087508387863636017</v>
       </c>
       <c r="C66" s="0">
-        <v>1.3011729717254639</v>
+        <v>-0.68182158470153809</v>
       </c>
       <c r="D66" s="0">
-        <v>-2.1530342102050781</v>
+        <v>-1.3654968738555908</v>
       </c>
       <c r="E66" s="0">
-        <v>-1.4961643218994141</v>
+        <v>-1.6310162544250488</v>
       </c>
       <c r="F66" s="0">
-        <v>2.5103363990783691</v>
+        <v>0.19894029200077057</v>
       </c>
       <c r="G66" s="0">
-        <v>-0.38012686371803284</v>
+        <v>-0.72170567512512207</v>
       </c>
       <c r="H66" s="0">
-        <v>1.0151984691619873</v>
+        <v>-0.09471508115530014</v>
       </c>
       <c r="I66" s="0">
-        <v>0.51258021593093872</v>
+        <v>-0.42689973115921021</v>
       </c>
       <c r="J66" s="0">
-        <v>-0.4820111095905304</v>
+        <v>-0.77897465229034424</v>
       </c>
       <c r="K66" s="0">
-        <v>-0.31113040447235107</v>
+        <v>-0.388916015625</v>
       </c>
       <c r="L66" s="0">
-        <v>2.6929178237915039</v>
+        <v>0.29568177461624146</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>503</v>
+        <v>305</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>424</v>
+        <v>226</v>
       </c>
       <c r="B67" s="0">
-        <v>-3.0177066326141357</v>
+        <v>-1.0508943796157837</v>
       </c>
       <c r="C67" s="0">
-        <v>-2.9671449661254883</v>
+        <v>-2.9651262760162354</v>
       </c>
       <c r="D67" s="0">
-        <v>-1.0321497917175293</v>
+        <v>-0.15816175937652588</v>
       </c>
       <c r="E67" s="0">
-        <v>-1.8930528163909912</v>
+        <v>-2.5358073711395264</v>
       </c>
       <c r="F67" s="0">
-        <v>-2.1575896739959717</v>
+        <v>-0.76131904125213623</v>
       </c>
       <c r="G67" s="0">
-        <v>-1.9287955760955811</v>
+        <v>-2.1186380386352539</v>
       </c>
       <c r="H67" s="0">
-        <v>-1.9984087944030762</v>
+        <v>-1.2176895141601563</v>
       </c>
       <c r="I67" s="0">
-        <v>-2.2830309867858887</v>
+        <v>-0.94653427600860596</v>
       </c>
       <c r="J67" s="0">
-        <v>-2.4428837299346924</v>
+        <v>-1.3513029813766479</v>
       </c>
       <c r="K67" s="0">
-        <v>-1.4621740579605103</v>
+        <v>-1.0983901023864746</v>
       </c>
       <c r="L67" s="0">
-        <v>-2.5415022373199463</v>
+        <v>-1.7020173072814941</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>504</v>
+        <v>306</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>425</v>
+        <v>227</v>
       </c>
       <c r="B68" s="0">
-        <v>0.53548657894134521</v>
+        <v>-1.0840984582901001</v>
       </c>
       <c r="C68" s="0">
-        <v>1.7777173519134521</v>
+        <v>-1.4440021514892578</v>
       </c>
       <c r="D68" s="0">
-        <v>2.6663193702697754</v>
+        <v>0.11312471330165863</v>
       </c>
       <c r="E68" s="0">
-        <v>0.98667305707931519</v>
+        <v>-0.75315552949905396</v>
       </c>
       <c r="F68" s="0">
-        <v>2.6687784194946289</v>
+        <v>-0.85858571529388428</v>
       </c>
       <c r="G68" s="0">
-        <v>1.5906449556350708</v>
+        <v>-0.79505628347396851</v>
       </c>
       <c r="H68" s="0">
-        <v>1.7529560327529907</v>
+        <v>-0.68269240856170654</v>
       </c>
       <c r="I68" s="0">
-        <v>1.6535243988037109</v>
+        <v>-0.72587376832962036</v>
       </c>
       <c r="J68" s="0">
-        <v>0.75918406248092651</v>
+        <v>-0.82107430696487427</v>
       </c>
       <c r="K68" s="0">
-        <v>2.12396240234375</v>
+        <v>-0.29973623156547546</v>
       </c>
       <c r="L68" s="0">
-        <v>2.226992130279541</v>
+        <v>-1.1317718029022217</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>504</v>
+        <v>306</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>426</v>
+        <v>228</v>
       </c>
       <c r="B69" s="0">
-        <v>0.3972780704498291</v>
+        <v>0.31101405620574951</v>
       </c>
       <c r="C69" s="0">
-        <v>-0.94159877300262451</v>
+        <v>-0.08367910236120224</v>
       </c>
       <c r="D69" s="0">
-        <v>-0.88305294513702393</v>
+        <v>-0.42686846852302551</v>
       </c>
       <c r="E69" s="0">
-        <v>-0.62257921695709229</v>
+        <v>-0.31356161832809448</v>
       </c>
       <c r="F69" s="0">
-        <v>-1.1429888010025024</v>
+        <v>-0.59899324178695679</v>
       </c>
       <c r="G69" s="0">
-        <v>0.56307470798492432</v>
+        <v>-0.12178768217563629</v>
       </c>
       <c r="H69" s="0">
-        <v>-0.24403132498264313</v>
+        <v>-0.17430125176906586</v>
       </c>
       <c r="I69" s="0">
-        <v>-0.13646475970745087</v>
+        <v>0.031133145093917847</v>
       </c>
       <c r="J69" s="0">
-        <v>-0.0081814005970954895</v>
+        <v>0.29557472467422485</v>
       </c>
       <c r="K69" s="0">
-        <v>-0.10290516912937164</v>
+        <v>-0.096398338675498962</v>
       </c>
       <c r="L69" s="0">
-        <v>-0.50016647577285767</v>
+        <v>-0.1104128360748291</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>504</v>
+        <v>306</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>427</v>
+        <v>229</v>
       </c>
       <c r="B70" s="0">
-        <v>1.794487476348877</v>
+        <v>-0.93228524923324585</v>
       </c>
       <c r="C70" s="0">
-        <v>-0.40670570731163025</v>
+        <v>-1.5800480842590332</v>
       </c>
       <c r="D70" s="0">
-        <v>-0.69016349315643311</v>
+        <v>-1.7726860046386719</v>
       </c>
       <c r="E70" s="0">
-        <v>-0.81349742412567139</v>
+        <v>-1.0085985660552979</v>
       </c>
       <c r="F70" s="0">
-        <v>-0.47410911321640015</v>
+        <v>-1.2761073112487793</v>
       </c>
       <c r="G70" s="0">
-        <v>-2.0730786323547363</v>
+        <v>-0.083060964941978455</v>
       </c>
       <c r="H70" s="0">
-        <v>-1.1242417097091675</v>
+        <v>-0.73791438341140747</v>
       </c>
       <c r="I70" s="0">
-        <v>1.3113672733306885</v>
+        <v>-1.2694544792175293</v>
       </c>
       <c r="J70" s="0">
-        <v>0.51420384645462036</v>
+        <v>-0.94688546657562256</v>
       </c>
       <c r="K70" s="0">
-        <v>-0.26479622721672058</v>
+        <v>-0.90614807605743408</v>
       </c>
       <c r="L70" s="0">
-        <v>0.22138279676437378</v>
+        <v>-1.432260274887085</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>504</v>
+        <v>306</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>428</v>
+        <v>230</v>
       </c>
       <c r="B71" s="0">
-        <v>3.5296974182128906</v>
+        <v>-0.12880755960941315</v>
       </c>
       <c r="C71" s="0">
-        <v>2.5588507652282715</v>
+        <v>-0.10957631468772888</v>
       </c>
       <c r="D71" s="0">
-        <v>3.0947186946868896</v>
+        <v>-0.68140363693237305</v>
       </c>
       <c r="E71" s="0">
-        <v>-0.39210206270217896</v>
+        <v>-0.90551102161407471</v>
       </c>
       <c r="F71" s="0">
-        <v>1.3242615461349487</v>
+        <v>0.21212317049503326</v>
       </c>
       <c r="G71" s="0">
-        <v>0.14113110303878784</v>
+        <v>0.054399967193603516</v>
       </c>
       <c r="H71" s="0">
-        <v>0.35355094075202942</v>
+        <v>-0.20114947855472565</v>
       </c>
       <c r="I71" s="0">
-        <v>3.069725513458252</v>
+        <v>-0.2949012815952301</v>
       </c>
       <c r="J71" s="0">
-        <v>1.5523195266723633</v>
+        <v>-0.52042269706726074</v>
       </c>
       <c r="K71" s="0">
-        <v>1.6472642421722412</v>
+        <v>-0.31659349799156189</v>
       </c>
       <c r="L71" s="0">
-        <v>1.9467437267303467</v>
+        <v>0.09254629909992218</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>504</v>
+        <v>306</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>429</v>
+        <v>231</v>
       </c>
       <c r="B72" s="0">
-        <v>-1.0521035194396973</v>
+        <v>-0.94574707746505737</v>
       </c>
       <c r="C72" s="0">
-        <v>-0.78443562984466553</v>
+        <v>-1.199235200881958</v>
       </c>
       <c r="D72" s="0">
-        <v>-0.23273593187332153</v>
+        <v>-0.90584611892700195</v>
       </c>
       <c r="E72" s="0">
-        <v>2.5339133739471436</v>
+        <v>-1.2061976194381714</v>
       </c>
       <c r="F72" s="0">
-        <v>1.1064523458480835</v>
+        <v>-0.80627548694610596</v>
       </c>
       <c r="G72" s="0">
-        <v>1.0277923345565796</v>
+        <v>-1.2967333793640137</v>
       </c>
       <c r="H72" s="0">
-        <v>1.911447286605835</v>
+        <v>-0.95916616916656494</v>
       </c>
       <c r="I72" s="0">
-        <v>-0.57192206382751465</v>
+        <v>-0.87539821863174438</v>
       </c>
       <c r="J72" s="0">
-        <v>1.0927243232727051</v>
+        <v>-0.9153066873550415</v>
       </c>
       <c r="K72" s="0">
-        <v>0.48758280277252197</v>
+        <v>-1.1012897491455078</v>
       </c>
       <c r="L72" s="0">
-        <v>0.18373267352581024</v>
+        <v>-0.88603591918945313</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>504</v>
+        <v>306</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>430</v>
+        <v>232</v>
       </c>
       <c r="B73" s="0">
-        <v>0.15301740169525146</v>
+        <v>-0.20017829537391663</v>
       </c>
       <c r="C73" s="0">
-        <v>0.016243606805801392</v>
+        <v>-1.9340159893035889</v>
       </c>
       <c r="D73" s="0">
-        <v>-0.4989815354347229</v>
+        <v>-1.1520010232925415</v>
       </c>
       <c r="E73" s="0">
-        <v>-1.3419004678726196</v>
+        <v>-0.42779344320297241</v>
       </c>
       <c r="F73" s="0">
-        <v>-1.3377341032028198</v>
+        <v>-1.1273046731948853</v>
       </c>
       <c r="G73" s="0">
-        <v>1.2782453298568726</v>
+        <v>-0.52780556678771973</v>
       </c>
       <c r="H73" s="0">
-        <v>0.018133804202079773</v>
+        <v>-0.28822773694992065</v>
       </c>
       <c r="I73" s="0">
-        <v>0.17744666337966919</v>
+        <v>-0.93125033378601074</v>
       </c>
       <c r="J73" s="0">
-        <v>-0.11851579695940018</v>
+        <v>-0.10125264525413513</v>
       </c>
       <c r="K73" s="0">
-        <v>0.44235917925834656</v>
+        <v>-0.59449338912963867</v>
       </c>
       <c r="L73" s="0">
-        <v>-0.023138098418712616</v>
+        <v>-1.444694995880127</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>504</v>
+        <v>306</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>431</v>
+        <v>233</v>
       </c>
       <c r="B74" s="0">
-        <v>0.0098718702793121338</v>
+        <v>-1.6327676773071289</v>
       </c>
       <c r="C74" s="0">
-        <v>0.44442009925842285</v>
+        <v>-1.0924351215362549</v>
       </c>
       <c r="D74" s="0">
-        <v>0.99972790479660034</v>
+        <v>-1.236137866973877</v>
       </c>
       <c r="E74" s="0">
-        <v>0.93385636806488037</v>
+        <v>-0.26154217123985291</v>
       </c>
       <c r="F74" s="0">
-        <v>-0.56440794467926025</v>
+        <v>-1.5522916316986084</v>
       </c>
       <c r="G74" s="0">
-        <v>-0.83805817365646362</v>
+        <v>-0.96025633811950684</v>
       </c>
       <c r="H74" s="0">
-        <v>0.21247842907905579</v>
+        <v>-0.8082050085067749</v>
       </c>
       <c r="I74" s="0">
-        <v>0.58551698923110962</v>
+        <v>-0.81730473041534424</v>
       </c>
       <c r="J74" s="0">
-        <v>0.55375212430953979</v>
+        <v>-0.92895281314849854</v>
       </c>
       <c r="K74" s="0">
-        <v>0.21383056044578552</v>
+        <v>-0.90720140933990479</v>
       </c>
       <c r="L74" s="0">
-        <v>0.25091296434402466</v>
+        <v>-0.52500104904174805</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>505</v>
+        <v>307</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>432</v>
+        <v>234</v>
       </c>
       <c r="B75" s="0">
-        <v>-0.076388195157051086</v>
+        <v>-0.18206307291984558</v>
       </c>
       <c r="C75" s="0">
-        <v>1.3196227550506592</v>
+        <v>0.34519082307815552</v>
       </c>
       <c r="D75" s="0">
-        <v>-2.6772897243499756</v>
+        <v>-1.7642536163330078</v>
       </c>
       <c r="E75" s="0">
-        <v>-1.1569962501525879</v>
+        <v>-0.64656507968902588</v>
       </c>
       <c r="F75" s="0">
-        <v>-0.056774076074361801</v>
+        <v>-0.25328677892684937</v>
       </c>
       <c r="G75" s="0">
-        <v>-0.87924486398696899</v>
+        <v>-0.27729189395904541</v>
       </c>
       <c r="H75" s="0">
-        <v>-0.69665735960006714</v>
+        <v>-0.3930242657661438</v>
       </c>
       <c r="I75" s="0">
-        <v>-0.48806107044219971</v>
+        <v>-0.45461368560791016</v>
       </c>
       <c r="J75" s="0">
-        <v>-0.61669212579727173</v>
+        <v>-0.23794475197792053</v>
       </c>
       <c r="K75" s="0">
-        <v>-1.7858220338821411</v>
+        <v>-1.0270206928253174</v>
       </c>
       <c r="L75" s="0">
-        <v>0.62564116716384888</v>
+        <v>0.083998709917068481</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>506</v>
+        <v>308</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>433</v>
+        <v>235</v>
       </c>
       <c r="B76" s="0">
-        <v>0.36274701356887817</v>
+        <v>0.14409276843070984</v>
       </c>
       <c r="C76" s="0">
-        <v>0.32788881659507751</v>
+        <v>0.36794167757034302</v>
       </c>
       <c r="D76" s="0">
-        <v>0.94502806663513184</v>
+        <v>0.098059222102165222</v>
       </c>
       <c r="E76" s="0">
-        <v>1.4067748785018921</v>
+        <v>0.62275981903076172</v>
       </c>
       <c r="F76" s="0">
-        <v>0.64903122186660767</v>
+        <v>-0.76141881942749023</v>
       </c>
       <c r="G76" s="0">
-        <v>0.61349201202392578</v>
+        <v>-0.29636988043785095</v>
       </c>
       <c r="H76" s="0">
-        <v>1.020081639289856</v>
+        <v>-0.038042493164539337</v>
       </c>
       <c r="I76" s="0">
-        <v>0.91439127922058105</v>
+        <v>0.46001347899436951</v>
       </c>
       <c r="J76" s="0">
-        <v>0.97228521108627319</v>
+        <v>0.42819154262542725</v>
       </c>
       <c r="K76" s="0">
-        <v>0.95646429061889648</v>
+        <v>-0.088801711797714233</v>
       </c>
       <c r="L76" s="0">
-        <v>0.65040671825408936</v>
+        <v>-0.017957121133804321</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>507</v>
+        <v>309</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>434</v>
+        <v>236</v>
       </c>
       <c r="B77" s="0">
-        <v>-2.4119143486022949</v>
+        <v>-1.8876440525054932</v>
       </c>
       <c r="C77" s="0">
-        <v>-2.1314458847045898</v>
+        <v>-1.2941319942474365</v>
       </c>
       <c r="D77" s="0">
-        <v>-2.7697255611419678</v>
+        <v>-2.2020149230957031</v>
       </c>
       <c r="E77" s="0">
-        <v>-2.2197113037109375</v>
+        <v>-1.2339191436767578</v>
       </c>
       <c r="F77" s="0">
-        <v>-0.7534555196762085</v>
+        <v>-1.2269754409790039</v>
       </c>
       <c r="G77" s="0">
-        <v>0.46609219908714294</v>
+        <v>-0.078326649963855743</v>
       </c>
       <c r="H77" s="0">
-        <v>-0.75405216217041016</v>
+        <v>-0.52951329946517944</v>
       </c>
       <c r="I77" s="0">
-        <v>-2.4295554161071777</v>
+        <v>-1.637164831161499</v>
       </c>
       <c r="J77" s="0">
-        <v>-1.7076320648193359</v>
+        <v>-1.4969418048858643</v>
       </c>
       <c r="K77" s="0">
-        <v>-0.69114536046981812</v>
+        <v>-0.91405338048934937</v>
       </c>
       <c r="L77" s="0">
-        <v>-1.0101802349090576</v>
+        <v>-1.0615758895874023</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>507</v>
+        <v>309</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>435</v>
+        <v>237</v>
       </c>
       <c r="B78" s="0">
-        <v>0.16249006986618042</v>
+        <v>-0.33826205134391785</v>
       </c>
       <c r="C78" s="0">
-        <v>3.1952347755432129</v>
+        <v>0.3499864935874939</v>
       </c>
       <c r="D78" s="0">
-        <v>2.938509464263916</v>
+        <v>0.033999234437942505</v>
       </c>
       <c r="E78" s="0">
-        <v>2.9990205764770508</v>
+        <v>0.92339599132537842</v>
       </c>
       <c r="F78" s="0">
-        <v>0.5339236855506897</v>
+        <v>-0.58186209201812744</v>
       </c>
       <c r="G78" s="0">
-        <v>2.3876254558563232</v>
+        <v>-0.033281557261943817</v>
       </c>
       <c r="H78" s="0">
-        <v>2.8401696681976318</v>
+        <v>0.3531566858291626</v>
       </c>
       <c r="I78" s="0">
-        <v>2.1095616817474365</v>
+        <v>0.3414158821105957</v>
       </c>
       <c r="J78" s="0">
-        <v>3.2893795967102051</v>
+        <v>0.62676876783370972</v>
       </c>
       <c r="K78" s="0">
-        <v>3.439932107925415</v>
+        <v>0.0003588944673538208</v>
       </c>
       <c r="L78" s="0">
-        <v>1.8645789623260498</v>
+        <v>0.19948634505271912</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>507</v>
+        <v>309</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>436</v>
+        <v>238</v>
       </c>
       <c r="B79" s="0">
-        <v>5.3818435668945313</v>
+        <v>2.0885543823242188</v>
       </c>
       <c r="C79" s="0">
-        <v>5.4042186737060547</v>
+        <v>1.7469577789306641</v>
       </c>
       <c r="D79" s="0">
-        <v>4.0741548538208008</v>
+        <v>1.7209620475769043</v>
       </c>
       <c r="E79" s="0">
-        <v>5.9763803482055664</v>
+        <v>1.9162464141845703</v>
       </c>
       <c r="F79" s="0">
-        <v>6.0425047874450684</v>
+        <v>1.875152587890625</v>
       </c>
       <c r="G79" s="0">
-        <v>5.3628606796264648</v>
+        <v>1.4950579404830933</v>
       </c>
       <c r="H79" s="0">
-        <v>5.9351768493652344</v>
+        <v>1.9310066699981689</v>
       </c>
       <c r="I79" s="0">
-        <v>4.958275318145752</v>
+        <v>1.9095737934112549</v>
       </c>
       <c r="J79" s="0">
-        <v>5.6791119575500488</v>
+        <v>2.3609855175018311</v>
       </c>
       <c r="K79" s="0">
-        <v>4.9364490509033203</v>
+        <v>1.8035488128662109</v>
       </c>
       <c r="L79" s="0">
-        <v>5.7287707328796387</v>
+        <v>1.8121414184570313</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>507</v>
+        <v>309</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>437</v>
+        <v>239</v>
       </c>
       <c r="B80" s="0">
-        <v>-0.094274520874023438</v>
+        <v>-1.2978596687316895</v>
       </c>
       <c r="C80" s="0">
-        <v>0.81449258327484131</v>
+        <v>-0.44805794954299927</v>
       </c>
       <c r="D80" s="0">
-        <v>0.92182719707489014</v>
+        <v>-1.5190020799636841</v>
       </c>
       <c r="E80" s="0">
-        <v>1.5355445146560669</v>
+        <v>-0.62831664085388184</v>
       </c>
       <c r="F80" s="0">
-        <v>-0.27722540497779846</v>
+        <v>-1.0647046566009521</v>
       </c>
       <c r="G80" s="0">
-        <v>2.1986708641052246</v>
+        <v>-0.1908455491065979</v>
       </c>
       <c r="H80" s="0">
-        <v>1.1584136486053467</v>
+        <v>-0.55667543411254883</v>
       </c>
       <c r="I80" s="0">
-        <v>0.54583048820495605</v>
+        <v>-0.98314583301544189</v>
       </c>
       <c r="J80" s="0">
-        <v>0.70658504962921143</v>
+        <v>-0.93013209104537964</v>
       </c>
       <c r="K80" s="0">
-        <v>1.5547926425933838</v>
+        <v>-0.83399856090545654</v>
       </c>
       <c r="L80" s="0">
-        <v>0.27338016033172607</v>
+        <v>-0.72618567943572998</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>508</v>
+        <v>310</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>438</v>
+        <v>240</v>
       </c>
       <c r="B81" s="0">
-        <v>3.5737266540527344</v>
+        <v>0.28862470388412476</v>
       </c>
       <c r="C81" s="0">
-        <v>5.9149274826049805</v>
+        <v>1.0479283332824707</v>
       </c>
       <c r="D81" s="0">
-        <v>6.3232393264770508</v>
+        <v>1.0353538990020752</v>
       </c>
       <c r="E81" s="0">
-        <v>4.9094076156616211</v>
+        <v>0.59957373142242432</v>
       </c>
       <c r="F81" s="0">
-        <v>3.8460288047790527</v>
+        <v>0.58128392696380615</v>
       </c>
       <c r="G81" s="0">
-        <v>3.4841527938842773</v>
+        <v>0.009317547082901001</v>
       </c>
       <c r="H81" s="0">
-        <v>4.0845227241516113</v>
+        <v>0.39786458015441895</v>
       </c>
       <c r="I81" s="0">
-        <v>5.2475566864013672</v>
+        <v>0.78342819213867188</v>
       </c>
       <c r="J81" s="0">
-        <v>4.2415671348571777</v>
+        <v>0.44409915804862976</v>
       </c>
       <c r="K81" s="0">
-        <v>4.8915634155273438</v>
+        <v>0.51795095205307007</v>
       </c>
       <c r="L81" s="0">
-        <v>4.862642765045166</v>
+        <v>0.81058347225189209</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>509</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>439</v>
+        <v>241</v>
       </c>
       <c r="B82" s="0">
-        <v>-0.18393243849277496</v>
+        <v>-1.065909743309021</v>
       </c>
       <c r="C82" s="0">
-        <v>-0.55820894241333008</v>
+        <v>-1.4127030372619629</v>
       </c>
       <c r="D82" s="0">
-        <v>0.46559447050094604</v>
+        <v>-0.2602837085723877</v>
       </c>
       <c r="E82" s="0">
-        <v>-0.47871991991996765</v>
+        <v>-1.3353115320205688</v>
       </c>
       <c r="F82" s="0">
-        <v>0.42406266927719116</v>
+        <v>-0.53895407915115356</v>
       </c>
       <c r="G82" s="0">
-        <v>0.41210150718688965</v>
+        <v>-0.44661813974380493</v>
       </c>
       <c r="H82" s="0">
-        <v>0.3090689480304718</v>
+        <v>-0.63802951574325562</v>
       </c>
       <c r="I82" s="0">
-        <v>-0.046362705528736115</v>
+        <v>-0.77481484413146973</v>
       </c>
       <c r="J82" s="0">
-        <v>-0.10150748491287231</v>
+        <v>-1.2006107568740845</v>
       </c>
       <c r="K82" s="0">
-        <v>0.48955756425857544</v>
+        <v>-0.22463376820087433</v>
       </c>
       <c r="L82" s="0">
-        <v>-0.06707310676574707</v>
+        <v>-0.84532272815704346</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>510</v>
+        <v>312</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>440</v>
+        <v>242</v>
       </c>
       <c r="B83" s="0">
-        <v>3.5355587005615234</v>
+        <v>0.25534653663635254</v>
       </c>
       <c r="C83" s="0">
-        <v>2.3506169319152832</v>
+        <v>0.142125204205513</v>
       </c>
       <c r="D83" s="0">
-        <v>4.1500167846679688</v>
+        <v>0.61057776212692261</v>
       </c>
       <c r="E83" s="0">
-        <v>2.9871029853820801</v>
+        <v>0.72077423334121704</v>
       </c>
       <c r="F83" s="0">
-        <v>-0.44344326853752136</v>
+        <v>-0.63044017553329468</v>
       </c>
       <c r="G83" s="0">
-        <v>2.7761192321777344</v>
+        <v>0.47203227877616882</v>
       </c>
       <c r="H83" s="0">
-        <v>2.4343185424804688</v>
+        <v>0.38718560338020325</v>
       </c>
       <c r="I83" s="0">
-        <v>3.5983130931854248</v>
+        <v>0.54135453701019287</v>
       </c>
       <c r="J83" s="0">
-        <v>3.2564332485198975</v>
+        <v>0.62884694337844849</v>
       </c>
       <c r="K83" s="0">
-        <v>3.5000090599060059</v>
+        <v>0.56390988826751709</v>
       </c>
       <c r="L83" s="0">
-        <v>1.2447268962860107</v>
+        <v>-0.16419753432273865</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>511</v>
+        <v>313</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>441</v>
+        <v>243</v>
       </c>
       <c r="B84" s="0">
-        <v>-2.2017502784729004</v>
+        <v>-1.869941234588623</v>
       </c>
       <c r="C84" s="0">
-        <v>0.2629726231098175</v>
+        <v>0.38860583305358887</v>
       </c>
       <c r="D84" s="0">
-        <v>-2.4653000831604004</v>
+        <v>-0.74175208806991577</v>
       </c>
       <c r="E84" s="0">
-        <v>-0.48359790444374084</v>
+        <v>-0.33509707450866699</v>
       </c>
       <c r="F84" s="0">
-        <v>0.61279040575027466</v>
+        <v>0.54147273302078247</v>
       </c>
       <c r="G84" s="0">
-        <v>-1.4418489933013916</v>
+        <v>-0.029562249779701233</v>
       </c>
       <c r="H84" s="0">
-        <v>-0.30979371070861816</v>
+        <v>0.12623292207717896</v>
       </c>
       <c r="I84" s="0">
-        <v>-1.3123824596405029</v>
+        <v>-0.49128636717796326</v>
       </c>
       <c r="J84" s="0">
-        <v>-1.2920010089874268</v>
+        <v>-1.0959599018096924</v>
       </c>
       <c r="K84" s="0">
-        <v>-1.9669239521026611</v>
+        <v>-0.35642313957214355</v>
       </c>
       <c r="L84" s="0">
-        <v>0.61732220649719238</v>
+        <v>0.50528860092163086</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>512</v>
+        <v>314</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>442</v>
+        <v>244</v>
       </c>
       <c r="B85" s="0">
-        <v>0.71956169605255127</v>
+        <v>-1.8457529544830322</v>
       </c>
       <c r="C85" s="0">
-        <v>0.010170936584472656</v>
+        <v>-2.2755985260009766</v>
       </c>
       <c r="D85" s="0">
-        <v>-1.6319972276687622</v>
+        <v>-2.8142464160919189</v>
       </c>
       <c r="E85" s="0">
-        <v>1.2528201341629028</v>
+        <v>-2.2135312557220459</v>
       </c>
       <c r="F85" s="0">
-        <v>2.340388298034668</v>
+        <v>-1.6243247985839844</v>
       </c>
       <c r="G85" s="0">
-        <v>2.0144908428192139</v>
+        <v>-1.2504526376724243</v>
       </c>
       <c r="H85" s="0">
-        <v>2.173771858215332</v>
+        <v>-1.6221170425415039</v>
       </c>
       <c r="I85" s="0">
-        <v>0.12904182076454163</v>
+        <v>-2.2205061912536621</v>
       </c>
       <c r="J85" s="0">
-        <v>1.0566697120666504</v>
+        <v>-2.0279853343963623</v>
       </c>
       <c r="K85" s="0">
-        <v>0.22380460798740387</v>
+        <v>-1.9166439771652222</v>
       </c>
       <c r="L85" s="0">
-        <v>1.3772444725036621</v>
+        <v>-1.5892407894134521</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>513</v>
+        <v>315</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>443</v>
+        <v>245</v>
       </c>
       <c r="B86" s="0">
-        <v>-1.3804308176040649</v>
+        <v>0.99130731821060181</v>
       </c>
       <c r="C86" s="0">
-        <v>-0.77100282907485962</v>
+        <v>1.1465964317321777</v>
       </c>
       <c r="D86" s="0">
-        <v>-0.69980800151824951</v>
+        <v>0.25617250800132751</v>
       </c>
       <c r="E86" s="0">
-        <v>-1.4571409225463867</v>
+        <v>0.41526943445205688</v>
       </c>
       <c r="F86" s="0">
-        <v>-0.49746888875961304</v>
+        <v>0.14553150534629822</v>
       </c>
       <c r="G86" s="0">
-        <v>-0.53547310829162598</v>
+        <v>-0.16686996817588806</v>
       </c>
       <c r="H86" s="0">
-        <v>-0.70268738269805908</v>
+        <v>0.17898276448249817</v>
       </c>
       <c r="I86" s="0">
-        <v>-0.58202511072158813</v>
+        <v>0.85164856910705566</v>
       </c>
       <c r="J86" s="0">
-        <v>-1.3541762828826904</v>
+        <v>1.0028344392776489</v>
       </c>
       <c r="K86" s="0">
-        <v>-0.4335283637046814</v>
+        <v>0.53538227081298828</v>
       </c>
       <c r="L86" s="0">
-        <v>-0.37760615348815918</v>
+        <v>0.89669919013977051</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>513</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>444</v>
+        <v>246</v>
       </c>
       <c r="B87" s="0">
-        <v>-0.93386942148208618</v>
+        <v>-1.1436793804168701</v>
       </c>
       <c r="C87" s="0">
-        <v>-1.1548540592193604</v>
+        <v>-0.7214580774307251</v>
       </c>
       <c r="D87" s="0">
-        <v>-3.9134001731872559</v>
+        <v>-0.51179224252700806</v>
       </c>
       <c r="E87" s="0">
-        <v>-1.3273472785949707</v>
+        <v>-0.79692155122756958</v>
       </c>
       <c r="F87" s="0">
-        <v>-1.1435701847076416</v>
+        <v>-0.613475501537323</v>
       </c>
       <c r="G87" s="0">
-        <v>-0.47101765871047974</v>
+        <v>-0.81323051452636719</v>
       </c>
       <c r="H87" s="0">
-        <v>-0.96048647165298462</v>
+        <v>-0.57179594039916992</v>
       </c>
       <c r="I87" s="0">
-        <v>-1.6735169887542725</v>
+        <v>-0.77779030799865723</v>
       </c>
       <c r="J87" s="0">
-        <v>-0.70096391439437866</v>
+        <v>-0.97328972816467285</v>
       </c>
       <c r="K87" s="0">
-        <v>-2.1772420406341553</v>
+        <v>-0.54448699951171875</v>
       </c>
       <c r="L87" s="0">
-        <v>-1.1492123603820801</v>
+        <v>-0.56284892559051514</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>513</v>
+        <v>315</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>445</v>
+        <v>247</v>
       </c>
       <c r="B88" s="0">
-        <v>-1.0773583650588989</v>
+        <v>-0.95127260684967041</v>
       </c>
       <c r="C88" s="0">
-        <v>-1.2670022249221802</v>
+        <v>-0.92072147130966187</v>
       </c>
       <c r="D88" s="0">
-        <v>0.42285272479057312</v>
+        <v>-0.84736686944961548</v>
       </c>
       <c r="E88" s="0">
-        <v>-1.7123980522155762</v>
+        <v>-0.4970320463180542</v>
       </c>
       <c r="F88" s="0">
-        <v>-0.39046627283096313</v>
+        <v>-1.2342865467071533</v>
       </c>
       <c r="G88" s="0">
-        <v>-1.2924367189407349</v>
+        <v>-0.87841707468032837</v>
       </c>
       <c r="H88" s="0">
-        <v>-0.9511725902557373</v>
+        <v>-0.80924409627914429</v>
       </c>
       <c r="I88" s="0">
-        <v>-0.54698073863983154</v>
+        <v>-0.71438628435134888</v>
       </c>
       <c r="J88" s="0">
-        <v>-1.3892600536346436</v>
+        <v>-0.57615536451339722</v>
       </c>
       <c r="K88" s="0">
-        <v>-0.4417993426322937</v>
+        <v>-0.57732290029525757</v>
       </c>
       <c r="L88" s="0">
-        <v>-0.83241724967956543</v>
+        <v>-0.99451446533203125</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>513</v>
+        <v>315</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>446</v>
+        <v>248</v>
       </c>
       <c r="B89" s="0">
-        <v>-1.5120956897735596</v>
+        <v>-0.32906544208526611</v>
       </c>
       <c r="C89" s="0">
-        <v>-1.1633771657943726</v>
+        <v>0.10626693069934845</v>
       </c>
       <c r="D89" s="0">
-        <v>-2.4179086685180664</v>
+        <v>0.1419433057308197</v>
       </c>
       <c r="E89" s="0">
-        <v>-2.807945728302002</v>
+        <v>-0.43962773680686951</v>
       </c>
       <c r="F89" s="0">
-        <v>-2.2075142860412598</v>
+        <v>-0.60595446825027466</v>
       </c>
       <c r="G89" s="0">
-        <v>-2.1587288379669189</v>
+        <v>-0.68801051378250122</v>
       </c>
       <c r="H89" s="0">
-        <v>-2.3765265941619873</v>
+        <v>-0.57863646745681763</v>
       </c>
       <c r="I89" s="0">
-        <v>-1.6324853897094727</v>
+        <v>-0.0039288629777729511</v>
       </c>
       <c r="J89" s="0">
-        <v>-2.041731595993042</v>
+        <v>-0.28384894132614136</v>
       </c>
       <c r="K89" s="0">
-        <v>-1.8226521015167236</v>
+        <v>-0.21369720995426178</v>
       </c>
       <c r="L89" s="0">
-        <v>-1.3101300001144409</v>
+        <v>-0.14596134424209595</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>513</v>
+        <v>315</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>447</v>
+        <v>249</v>
       </c>
       <c r="B90" s="0">
-        <v>1.7118594646453857</v>
+        <v>0.45975321531295776</v>
       </c>
       <c r="C90" s="0">
-        <v>0.52938187122344971</v>
+        <v>1.3994686603546143</v>
       </c>
       <c r="D90" s="0">
-        <v>1.2187731266021729</v>
+        <v>0.2344171553850174</v>
       </c>
       <c r="E90" s="0">
-        <v>0.45742183923721313</v>
+        <v>-1.0899734497070313</v>
       </c>
       <c r="F90" s="0">
-        <v>0.24709600210189819</v>
+        <v>0.096848145127296448</v>
       </c>
       <c r="G90" s="0">
-        <v>1.7265082597732544</v>
+        <v>0.089794047176837921</v>
       </c>
       <c r="H90" s="0">
-        <v>0.81231367588043213</v>
+        <v>-0.28420341014862061</v>
       </c>
       <c r="I90" s="0">
-        <v>1.2012491226196289</v>
+        <v>0.91770750284194946</v>
       </c>
       <c r="J90" s="0">
-        <v>1.0846405029296875</v>
+        <v>-0.30693036317825317</v>
       </c>
       <c r="K90" s="0">
-        <v>1.543163537979126</v>
+        <v>0.41658946871757507</v>
       </c>
       <c r="L90" s="0">
-        <v>0.38705283403396606</v>
+        <v>0.81877553462982178</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>513</v>
+        <v>315</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>448</v>
+        <v>250</v>
       </c>
       <c r="B91" s="0">
-        <v>-0.61862921714782715</v>
+        <v>-1.3992949724197388</v>
       </c>
       <c r="C91" s="0">
-        <v>-0.27138715982437134</v>
+        <v>-1.3766398429870605</v>
       </c>
       <c r="D91" s="0">
-        <v>-2.5980899333953857</v>
+        <v>-1.2699332237243652</v>
       </c>
       <c r="E91" s="0">
-        <v>-1.1765695810317993</v>
+        <v>-1.075253963470459</v>
       </c>
       <c r="F91" s="0">
-        <v>-1.1188300848007202</v>
+        <v>-2.1027183532714844</v>
       </c>
       <c r="G91" s="0">
-        <v>-0.13291929662227631</v>
+        <v>-1.1861661672592163</v>
       </c>
       <c r="H91" s="0">
-        <v>-0.7687334418296814</v>
+        <v>-1.3419984579086304</v>
       </c>
       <c r="I91" s="0">
-        <v>-1.1391370296478271</v>
+        <v>-1.196030855178833</v>
       </c>
       <c r="J91" s="0">
-        <v>-0.82967644929885864</v>
+        <v>-1.0908560752868652</v>
       </c>
       <c r="K91" s="0">
-        <v>-1.3541965484619141</v>
+        <v>-1.1243001222610474</v>
       </c>
       <c r="L91" s="0">
-        <v>-0.69129139184951782</v>
+        <v>-1.7364084720611572</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>513</v>
+        <v>315</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>449</v>
+        <v>251</v>
       </c>
       <c r="B92" s="0">
-        <v>0.47167310118675232</v>
+        <v>0.072584085166454315</v>
       </c>
       <c r="C92" s="0">
-        <v>2.4718747138977051</v>
+        <v>0.83149826526641846</v>
       </c>
       <c r="D92" s="0">
-        <v>1.5975652933120728</v>
+        <v>0.15806706249713898</v>
       </c>
       <c r="E92" s="0">
-        <v>1.6660810708999634</v>
+        <v>0.39875516295433044</v>
       </c>
       <c r="F92" s="0">
-        <v>1.7610832452774048</v>
+        <v>1.019627571105957</v>
       </c>
       <c r="G92" s="0">
-        <v>1.7065577507019043</v>
+        <v>0.85029095411300659</v>
       </c>
       <c r="H92" s="0">
-        <v>1.7508925199508667</v>
+        <v>0.90764385461807251</v>
       </c>
       <c r="I92" s="0">
-        <v>1.4950402975082397</v>
+        <v>0.43223613500595093</v>
       </c>
       <c r="J92" s="0">
-        <v>1.0524401664733887</v>
+        <v>0.55237555503845215</v>
       </c>
       <c r="K92" s="0">
-        <v>1.7111129760742188</v>
+        <v>0.59522062540054321</v>
       </c>
       <c r="L92" s="0">
-        <v>2.1004700660705566</v>
+        <v>0.92979997396469116</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>513</v>
+        <v>315</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>450</v>
+        <v>252</v>
       </c>
       <c r="B93" s="0">
-        <v>0.19261330366134644</v>
+        <v>0.1313481479883194</v>
       </c>
       <c r="C93" s="0">
-        <v>-1.3134695291519165</v>
+        <v>-0.46100908517837524</v>
       </c>
       <c r="D93" s="0">
-        <v>-0.3808550238609314</v>
+        <v>-0.24930849671363831</v>
       </c>
       <c r="E93" s="0">
-        <v>0.64195436239242554</v>
+        <v>0.39833581447601318</v>
       </c>
       <c r="F93" s="0">
-        <v>1.6329617500305176</v>
+        <v>0.60601186752319336</v>
       </c>
       <c r="G93" s="0">
-        <v>0.96936345100402832</v>
+        <v>0.92330235242843628</v>
       </c>
       <c r="H93" s="0">
-        <v>1.0963773727416992</v>
+        <v>0.81437110900878906</v>
       </c>
       <c r="I93" s="0">
-        <v>-0.22403097152709961</v>
+        <v>-0.1187606155872345</v>
       </c>
       <c r="J93" s="0">
-        <v>0.61680543422698975</v>
+        <v>0.289388507604599</v>
       </c>
       <c r="K93" s="0">
-        <v>0.93041008710861206</v>
+        <v>0.56280422210693359</v>
       </c>
       <c r="L93" s="0">
-        <v>0.6004490852355957</v>
+        <v>0.20273764431476593</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>513</v>
+        <v>315</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>451</v>
+        <v>253</v>
       </c>
       <c r="B94" s="0">
-        <v>-2.7816324234008789</v>
+        <v>-0.21774746477603912</v>
       </c>
       <c r="C94" s="0">
-        <v>-4.0229740142822266</v>
+        <v>-1.3843520879745483</v>
       </c>
       <c r="D94" s="0">
-        <v>-1.6475801467895508</v>
+        <v>-0.40304958820343018</v>
       </c>
       <c r="E94" s="0">
-        <v>-3.0963020324707031</v>
+        <v>-0.97974610328674316</v>
       </c>
       <c r="F94" s="0">
-        <v>-2.8809006214141846</v>
+        <v>-0.53730422258377075</v>
       </c>
       <c r="G94" s="0">
-        <v>0.43089854717254639</v>
+        <v>0.092000342905521393</v>
       </c>
       <c r="H94" s="0">
-        <v>-0.92144852876663208</v>
+        <v>-0.19222259521484375</v>
       </c>
       <c r="I94" s="0">
-        <v>-1.394373893737793</v>
+        <v>-0.48914808034896851</v>
       </c>
       <c r="J94" s="0">
-        <v>-2.7882354259490967</v>
+        <v>-0.57150650024414063</v>
       </c>
       <c r="K94" s="0">
-        <v>-0.10573013126850128</v>
+        <v>0.072210803627967834</v>
       </c>
       <c r="L94" s="0">
-        <v>-2.3440546989440918</v>
+        <v>-0.57679998874664307</v>
       </c>
       <c r="M94" s="0" t="s">
-        <v>513</v>
+        <v>315</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>452</v>
+        <v>254</v>
       </c>
       <c r="B95" s="0">
-        <v>0.61569952964782715</v>
+        <v>0.0013994276523590088</v>
       </c>
       <c r="C95" s="0">
-        <v>-0.10830287635326385</v>
+        <v>0.23318783938884735</v>
       </c>
       <c r="D95" s="0">
-        <v>0.3223930299282074</v>
+        <v>0.067356407642364502</v>
       </c>
       <c r="E95" s="0">
-        <v>0.25350090861320496</v>
+        <v>0.26035937666893005</v>
       </c>
       <c r="F95" s="0">
-        <v>-0.87141382694244385</v>
+        <v>-0.1377347856760025</v>
       </c>
       <c r="G95" s="0">
-        <v>2.8342761993408203</v>
+        <v>0.39301398396492004</v>
       </c>
       <c r="H95" s="0">
-        <v>0.82319015264511108</v>
+        <v>0.1708507239818573</v>
       </c>
       <c r="I95" s="0">
-        <v>0.56218695640563965</v>
+        <v>0.15271726250648499</v>
       </c>
       <c r="J95" s="0">
-        <v>0.43777740001678467</v>
+        <v>0.14654563367366791</v>
       </c>
       <c r="K95" s="0">
-        <v>1.8018258810043335</v>
+        <v>0.23018521070480347</v>
       </c>
       <c r="L95" s="0">
-        <v>-0.37307703495025635</v>
+        <v>0.065812736749649048</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>513</v>
+        <v>315</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>453</v>
+        <v>255</v>
       </c>
       <c r="B96" s="0">
-        <v>0.6620945930480957</v>
+        <v>-0.26477921009063721</v>
       </c>
       <c r="C96" s="0">
-        <v>0.85208392143249512</v>
+        <v>-0.35216206312179565</v>
       </c>
       <c r="D96" s="0">
-        <v>0.05050361156463623</v>
+        <v>-0.55724650621414185</v>
       </c>
       <c r="E96" s="0">
-        <v>0.5832902193069458</v>
+        <v>0.2073112428188324</v>
       </c>
       <c r="F96" s="0">
-        <v>0.22349831461906433</v>
+        <v>-0.48349505662918091</v>
       </c>
       <c r="G96" s="0">
-        <v>0.11856623739004135</v>
+        <v>-0.36961811780929565</v>
       </c>
       <c r="H96" s="0">
-        <v>0.54015648365020752</v>
+        <v>-0.10799625515937805</v>
       </c>
       <c r="I96" s="0">
-        <v>0.6516258716583252</v>
+        <v>-0.29779031872749329</v>
       </c>
       <c r="J96" s="0">
-        <v>0.75713181495666504</v>
+        <v>0.033495169132947922</v>
       </c>
       <c r="K96" s="0">
-        <v>0.55597442388534546</v>
+        <v>-0.41380864381790161</v>
       </c>
       <c r="L96" s="0">
-        <v>0.56692224740982056</v>
+        <v>-0.33487507700920105</v>
       </c>
       <c r="M96" s="0" t="s">
-        <v>513</v>
+        <v>315</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>454</v>
+        <v>256</v>
       </c>
       <c r="B97" s="0">
-        <v>-0.95065218210220337</v>
+        <v>-2.3580038547515869</v>
       </c>
       <c r="C97" s="0">
-        <v>1.4061663150787354</v>
+        <v>0.023166254162788391</v>
       </c>
       <c r="D97" s="0">
-        <v>-1.015549898147583</v>
+        <v>-0.90481042861938477</v>
       </c>
       <c r="E97" s="0">
-        <v>-0.0017260164022445679</v>
+        <v>0.12322913110256195</v>
       </c>
       <c r="F97" s="0">
-        <v>0.31275096535682678</v>
+        <v>-0.09504951536655426</v>
       </c>
       <c r="G97" s="0">
-        <v>0.37571600079536438</v>
+        <v>-0.94619649648666382</v>
       </c>
       <c r="H97" s="0">
-        <v>0.40905463695526123</v>
+        <v>-0.21788842976093292</v>
       </c>
       <c r="I97" s="0">
-        <v>-0.071853727102279663</v>
+        <v>-0.92490965127944946</v>
       </c>
       <c r="J97" s="0">
-        <v>0.34853976964950562</v>
+        <v>-0.65866541862487793</v>
       </c>
       <c r="K97" s="0">
-        <v>0.18710526823997498</v>
+        <v>-0.90739572048187256</v>
       </c>
       <c r="L97" s="0">
-        <v>1.2320718765258789</v>
+        <v>0.23610818386077881</v>
       </c>
       <c r="M97" s="0" t="s">
-        <v>513</v>
+        <v>315</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>455</v>
+        <v>257</v>
       </c>
       <c r="B98" s="0">
-        <v>-0.84662210941314697</v>
+        <v>-0.61011618375778198</v>
       </c>
       <c r="C98" s="0">
-        <v>0.55202889442443848</v>
+        <v>-0.60118210315704346</v>
       </c>
       <c r="D98" s="0">
-        <v>-1.4748001098632813</v>
+        <v>-1.2014298439025879</v>
       </c>
       <c r="E98" s="0">
-        <v>-1.3918898105621338</v>
+        <v>-0.97042578458786011</v>
       </c>
       <c r="F98" s="0">
-        <v>0.51029229164123535</v>
+        <v>-0.033277377486228943</v>
       </c>
       <c r="G98" s="0">
-        <v>-2.2821273803710938</v>
+        <v>-1.3433680534362793</v>
       </c>
       <c r="H98" s="0">
-        <v>-1.0507197380065918</v>
+        <v>-0.69380688667297363</v>
       </c>
       <c r="I98" s="0">
-        <v>-0.16666054725646973</v>
+        <v>-0.59586417675018311</v>
       </c>
       <c r="J98" s="0">
-        <v>-0.75367093086242676</v>
+        <v>-0.72509074211120605</v>
       </c>
       <c r="K98" s="0">
-        <v>-1.6848816871643066</v>
+        <v>-1.1367149353027344</v>
       </c>
       <c r="L98" s="0">
-        <v>0.62638270854949951</v>
+        <v>-0.31722977757453918</v>
       </c>
       <c r="M98" s="0" t="s">
-        <v>513</v>
+        <v>315</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>456</v>
+        <v>258</v>
       </c>
       <c r="B99" s="0">
-        <v>-0.46400037407875061</v>
+        <v>-0.44892698526382446</v>
       </c>
       <c r="C99" s="0">
-        <v>1.0668708086013794</v>
+        <v>-0.079510807991027832</v>
       </c>
       <c r="D99" s="0">
-        <v>-0.18956565856933594</v>
+        <v>-0.92027270793914795</v>
       </c>
       <c r="E99" s="0">
-        <v>0.27983802556991577</v>
+        <v>0.066055282950401306</v>
       </c>
       <c r="F99" s="0">
-        <v>0.23925021290779114</v>
+        <v>-0.11750908195972443</v>
       </c>
       <c r="G99" s="0">
-        <v>0.82759290933609009</v>
+        <v>0.1834782212972641</v>
       </c>
       <c r="H99" s="0">
-        <v>0.53298318386077881</v>
+        <v>0.20617742836475372</v>
       </c>
       <c r="I99" s="0">
-        <v>0.25088226795196533</v>
+        <v>-0.4829593300819397</v>
       </c>
       <c r="J99" s="0">
-        <v>-0.095493286848068237</v>
+        <v>-0.16159379482269287</v>
       </c>
       <c r="K99" s="0">
-        <v>0.30256962776184082</v>
+        <v>-0.30083060264587402</v>
       </c>
       <c r="L99" s="0">
-        <v>0.63407838344573975</v>
+        <v>-0.099381342530250549</v>
       </c>
       <c r="M99" s="0" t="s">
-        <v>513</v>
+        <v>315</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>457</v>
+        <v>259</v>
       </c>
       <c r="B100" s="0">
-        <v>1.15566086769104</v>
+        <v>-0.27793633937835693</v>
       </c>
       <c r="C100" s="0">
-        <v>2.1524538993835449</v>
+        <v>-0.93150615692138672</v>
       </c>
       <c r="D100" s="0">
-        <v>0.0459003746509552</v>
+        <v>0.84721791744232178</v>
       </c>
       <c r="E100" s="0">
-        <v>-0.27171951532363892</v>
+        <v>-1.2555017471313477</v>
       </c>
       <c r="F100" s="0">
-        <v>0.86761462688446045</v>
+        <v>-1.4890811443328857</v>
       </c>
       <c r="G100" s="0">
-        <v>1.1352396011352539</v>
+        <v>-0.84544497728347778</v>
       </c>
       <c r="H100" s="0">
-        <v>0.82729333639144897</v>
+        <v>-0.87362277507781982</v>
       </c>
       <c r="I100" s="0">
-        <v>1.3915495872497559</v>
+        <v>-0.064505346119403839</v>
       </c>
       <c r="J100" s="0">
-        <v>0.56206238269805908</v>
+        <v>-0.65222883224487305</v>
       </c>
       <c r="K100" s="0">
-        <v>0.86365509033203125</v>
+        <v>0.00088630616664886475</v>
       </c>
       <c r="L100" s="0">
-        <v>1.671673059463501</v>
+        <v>-1.1685746908187866</v>
       </c>
       <c r="M100" s="0" t="s">
-        <v>514</v>
+        <v>316</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>458</v>
+        <v>260</v>
       </c>
       <c r="B101" s="0">
-        <v>1.5394721031188965</v>
+        <v>-1.2693109512329102</v>
       </c>
       <c r="C101" s="0">
-        <v>1.3789476156234741</v>
+        <v>-1.122722864151001</v>
       </c>
       <c r="D101" s="0">
-        <v>0.45202583074569702</v>
+        <v>-1.2746764421463013</v>
       </c>
       <c r="E101" s="0">
-        <v>0.27710282802581787</v>
+        <v>-0.52981716394424438</v>
       </c>
       <c r="F101" s="0">
-        <v>1.0315917730331421</v>
+        <v>-0.38819444179534912</v>
       </c>
       <c r="G101" s="0">
-        <v>0.32540467381477356</v>
+        <v>-0.74905049800872803</v>
       </c>
       <c r="H101" s="0">
-        <v>0.5847201943397522</v>
+        <v>-0.49858865141868591</v>
       </c>
       <c r="I101" s="0">
-        <v>1.1705558300018311</v>
+        <v>-1.0638846158981323</v>
       </c>
       <c r="J101" s="0">
-        <v>0.92951387166976929</v>
+        <v>-0.89645707607269287</v>
       </c>
       <c r="K101" s="0">
-        <v>0.48906487226486206</v>
+        <v>-0.9511868953704834</v>
       </c>
       <c r="L101" s="0">
-        <v>1.2083169221878052</v>
+        <v>-0.67480647563934326</v>
       </c>
       <c r="M101" s="0" t="s">
-        <v>515</v>
+        <v>317</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>459</v>
+        <v>261</v>
       </c>
       <c r="B102" s="0">
-        <v>0.40434962511062622</v>
+        <v>-0.20046728849411011</v>
       </c>
       <c r="C102" s="0">
-        <v>2.3607048988342285</v>
+        <v>0.25809705257415771</v>
       </c>
       <c r="D102" s="0">
-        <v>-0.48985081911087036</v>
+        <v>-0.20951296389102936</v>
       </c>
       <c r="E102" s="0">
-        <v>-1.6508976221084595</v>
+        <v>-0.4085242748260498</v>
       </c>
       <c r="F102" s="0">
-        <v>-2.670896053314209</v>
+        <v>-0.64819794893264771</v>
       </c>
       <c r="G102" s="0">
-        <v>-0.34497234225273132</v>
+        <v>-0.24740049242973328</v>
       </c>
       <c r="H102" s="0">
-        <v>-1.5434565544128418</v>
+        <v>-0.30092498660087585</v>
       </c>
       <c r="I102" s="0">
-        <v>0.7381817102432251</v>
+        <v>0.10902521014213562</v>
       </c>
       <c r="J102" s="0">
-        <v>-0.62327408790588379</v>
+        <v>-0.18711797893047333</v>
       </c>
       <c r="K102" s="0">
-        <v>-0.41741159558296204</v>
+        <v>-0.028061017394065857</v>
       </c>
       <c r="L102" s="0">
-        <v>-0.15509578585624695</v>
+        <v>0.014625228941440582</v>
       </c>
       <c r="M102" s="0" t="s">
-        <v>516</v>
+        <v>318</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>460</v>
+        <v>262</v>
       </c>
       <c r="B103" s="0">
-        <v>0.65238416194915771</v>
+        <v>-1.0893354415893555</v>
       </c>
       <c r="C103" s="0">
-        <v>0.31745606660842896</v>
+        <v>-1.0890779495239258</v>
       </c>
       <c r="D103" s="0">
-        <v>0.23208758234977722</v>
+        <v>-1.2695906162261963</v>
       </c>
       <c r="E103" s="0">
-        <v>0.7401125431060791</v>
+        <v>-0.97774535417556763</v>
       </c>
       <c r="F103" s="0">
-        <v>1.3451287746429443</v>
+        <v>-0.85778570175170898</v>
       </c>
       <c r="G103" s="0">
-        <v>2.3002796173095703</v>
+        <v>-0.83608824014663696</v>
       </c>
       <c r="H103" s="0">
-        <v>1.4571565389633179</v>
+        <v>-0.70636296272277832</v>
       </c>
       <c r="I103" s="0">
-        <v>0.40458065271377563</v>
+        <v>-0.99954664707183838</v>
       </c>
       <c r="J103" s="0">
-        <v>0.69661694765090942</v>
+        <v>-0.86079037189483643</v>
       </c>
       <c r="K103" s="0">
-        <v>1.2648005485534668</v>
+        <v>-1.0433337688446045</v>
       </c>
       <c r="L103" s="0">
-        <v>0.83561033010482788</v>
+        <v>-0.9258456826210022</v>
       </c>
       <c r="M103" s="0" t="s">
-        <v>516</v>
+        <v>318</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>461</v>
+        <v>263</v>
       </c>
       <c r="B104" s="0">
-        <v>-1.9670071601867676</v>
+        <v>-2.7666192054748535</v>
       </c>
       <c r="C104" s="0">
-        <v>-2.4225273132324219</v>
+        <v>-3.487828254699707</v>
       </c>
       <c r="D104" s="0">
-        <v>-0.61286592483520508</v>
+        <v>-1.9911861419677734</v>
       </c>
       <c r="E104" s="0">
-        <v>-3.6226911544799805</v>
+        <v>-1.5704915523529053</v>
       </c>
       <c r="F104" s="0">
-        <v>-1.4361331462860107</v>
+        <v>-1.4191526174545288</v>
       </c>
       <c r="G104" s="0">
-        <v>-0.99148744344711304</v>
+        <v>-1.6322393417358398</v>
       </c>
       <c r="H104" s="0">
-        <v>-2.0200145244598389</v>
+        <v>-0.72869294881820679</v>
       </c>
       <c r="I104" s="0">
-        <v>-1.6674669981002808</v>
+        <v>-2.5324385166168213</v>
       </c>
       <c r="J104" s="0">
-        <v>-2.7948493957519531</v>
+        <v>-1.6435645818710327</v>
       </c>
       <c r="K104" s="0">
-        <v>-0.80217665433883667</v>
+        <v>-1.1380250453948975</v>
       </c>
       <c r="L104" s="0">
-        <v>-1.933475136756897</v>
+        <v>-2.4621822834014893</v>
       </c>
       <c r="M104" s="0" t="s">
-        <v>516</v>
+        <v>318</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>462</v>
+        <v>264</v>
       </c>
       <c r="B105" s="0">
-        <v>0.16319409012794495</v>
+        <v>-2.5271282196044922</v>
       </c>
       <c r="C105" s="0">
-        <v>-1.1143975257873535</v>
+        <v>-1.3661267757415771</v>
       </c>
       <c r="D105" s="0">
-        <v>2.6248681545257568</v>
+        <v>-1.5880460739135742</v>
       </c>
       <c r="E105" s="0">
-        <v>0.73253160715103149</v>
+        <v>-1.3964903354644775</v>
       </c>
       <c r="F105" s="0">
-        <v>0.68257904052734375</v>
+        <v>-1.4333175420761108</v>
       </c>
       <c r="G105" s="0">
-        <v>0.80908429622650146</v>
+        <v>-2.3677592277526855</v>
       </c>
       <c r="H105" s="0">
-        <v>1.091224193572998</v>
+        <v>-1.6457135677337646</v>
       </c>
       <c r="I105" s="0">
-        <v>1.5947272777557373</v>
+        <v>-1.3613836765289307</v>
       </c>
       <c r="J105" s="0">
-        <v>0.94719910621643066</v>
+        <v>-1.6866505146026611</v>
       </c>
       <c r="K105" s="0">
-        <v>1.7424309253692627</v>
+        <v>-1.8776127099990845</v>
       </c>
       <c r="L105" s="0">
-        <v>0.30078154802322388</v>
+        <v>-1.3211305141448975</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>517</v>
+        <v>319</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>463</v>
+        <v>265</v>
       </c>
       <c r="B106" s="0">
-        <v>-0.038961037993431091</v>
+        <v>-0.17814043164253235</v>
       </c>
       <c r="C106" s="0">
-        <v>-0.74287647008895874</v>
+        <v>-0.48835635185241699</v>
       </c>
       <c r="D106" s="0">
-        <v>-0.094237670302391052</v>
+        <v>-0.36635673046112061</v>
       </c>
       <c r="E106" s="0">
-        <v>-0.012364089488983154</v>
+        <v>-0.51497948169708252</v>
       </c>
       <c r="F106" s="0">
-        <v>0.13279637694358826</v>
+        <v>-0.19903513789176941</v>
       </c>
       <c r="G106" s="0">
-        <v>0.12974086403846741</v>
+        <v>-0.057065173983573914</v>
       </c>
       <c r="H106" s="0">
-        <v>0.20025143027305603</v>
+        <v>-0.12318797409534454</v>
       </c>
       <c r="I106" s="0">
-        <v>-0.26067638397216797</v>
+        <v>-0.2077079713344574</v>
       </c>
       <c r="J106" s="0">
-        <v>0.065109401941299438</v>
+        <v>-0.34655994176864624</v>
       </c>
       <c r="K106" s="0">
-        <v>0.0197162926197052</v>
+        <v>-0.18668074905872345</v>
       </c>
       <c r="L106" s="0">
-        <v>-0.29361826181411743</v>
+        <v>-0.16341947019100189</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>517</v>
+        <v>319</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>464</v>
+        <v>266</v>
       </c>
       <c r="B107" s="0">
-        <v>1.930504322052002</v>
+        <v>-0.036307450383901596</v>
       </c>
       <c r="C107" s="0">
-        <v>2.4397640228271484</v>
+        <v>0.0022230595350265503</v>
       </c>
       <c r="D107" s="0">
-        <v>-2.1019463539123535</v>
+        <v>-1.9036691188812256</v>
       </c>
       <c r="E107" s="0">
-        <v>1.2447975873947144</v>
+        <v>0.097351282835006714</v>
       </c>
       <c r="F107" s="0">
-        <v>0.65021324157714844</v>
+        <v>-1.0232338905334473</v>
       </c>
       <c r="G107" s="0">
-        <v>-0.21702936291694641</v>
+        <v>-0.92313206195831299</v>
       </c>
       <c r="H107" s="0">
-        <v>0.55496567487716675</v>
+        <v>-0.33183327317237854</v>
       </c>
       <c r="I107" s="0">
-        <v>0.7561073899269104</v>
+        <v>-0.64591783285140991</v>
       </c>
       <c r="J107" s="0">
-        <v>1.5876506567001343</v>
+        <v>0.24313920736312866</v>
       </c>
       <c r="K107" s="0">
-        <v>-1.1515679359436035</v>
+        <v>-1.4092807769775391</v>
       </c>
       <c r="L107" s="0">
-        <v>1.5449881553649902</v>
+        <v>-0.42584067583084106</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>517</v>
+        <v>319</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>465</v>
+        <v>267</v>
       </c>
       <c r="B108" s="0">
-        <v>-2.2167119979858398</v>
+        <v>-0.79076063632965088</v>
       </c>
       <c r="C108" s="0">
-        <v>-1.0625683069229126</v>
+        <v>-0.63495564460754395</v>
       </c>
       <c r="D108" s="0">
-        <v>-0.30563199520111084</v>
+        <v>-0.46143826842308044</v>
       </c>
       <c r="E108" s="0">
-        <v>-2.282515287399292</v>
+        <v>-0.8517531156539917</v>
       </c>
       <c r="F108" s="0">
-        <v>-3.4728736877441406</v>
+        <v>-1.029160737991333</v>
       </c>
       <c r="G108" s="0">
-        <v>-1.0084569454193115</v>
+        <v>-0.49876949191093445</v>
       </c>
       <c r="H108" s="0">
-        <v>-2.225715160369873</v>
+        <v>-0.69878751039505005</v>
       </c>
       <c r="I108" s="0">
-        <v>-1.1437978744506836</v>
+        <v>-0.59521234035491943</v>
       </c>
       <c r="J108" s="0">
-        <v>-2.2496137619018555</v>
+        <v>-0.82125681638717651</v>
       </c>
       <c r="K108" s="0">
-        <v>-0.58599084615707397</v>
+        <v>-0.47501885890960693</v>
       </c>
       <c r="L108" s="0">
-        <v>-2.2140891551971436</v>
+        <v>-0.77883297204971313</v>
       </c>
       <c r="M108" s="0" t="s">
-        <v>517</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
